--- a/data/Chinese_Stock/oil-up/600387-603003.xlsx
+++ b/data/Chinese_Stock/oil-up/600387-603003.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D598"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.949999999999999</v>
+        <v>8.82</v>
       </c>
       <c r="C2">
-        <v>10.7</v>
+        <v>10.35</v>
       </c>
       <c r="D2">
-        <v>2114.89</v>
+        <v>2276.99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.960000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="C3">
-        <v>9.69</v>
+        <v>10.36</v>
       </c>
       <c r="D3">
-        <v>2106.96</v>
+        <v>2285.36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C4">
-        <v>9.800000000000001</v>
+        <v>10.65</v>
       </c>
       <c r="D4">
-        <v>2118.27</v>
+        <v>2276.07</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.09</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C5">
-        <v>10.78</v>
+        <v>10.33</v>
       </c>
       <c r="D5">
-        <v>2107.71</v>
+        <v>2275.34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.890000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="C6">
-        <v>11.25</v>
+        <v>10.21</v>
       </c>
       <c r="D6">
-        <v>2113.07</v>
+        <v>2283.66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.49</v>
+        <v>9.67</v>
       </c>
       <c r="C7">
-        <v>10.65</v>
+        <v>9.94</v>
       </c>
       <c r="D7">
-        <v>2092.1</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.390000000000001</v>
+        <v>10.61</v>
       </c>
       <c r="C8">
-        <v>10.01</v>
+        <v>10.27</v>
       </c>
       <c r="D8">
-        <v>2055.71</v>
+        <v>2311.74</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.59</v>
+        <v>10.59</v>
       </c>
       <c r="C9">
-        <v>11.01</v>
+        <v>10.47</v>
       </c>
       <c r="D9">
-        <v>2073.15</v>
+        <v>2325.68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.380000000000001</v>
+        <v>10.62</v>
       </c>
       <c r="C10">
-        <v>11.24</v>
+        <v>11.05</v>
       </c>
       <c r="D10">
-        <v>2053.24</v>
+        <v>2309.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.109999999999999</v>
+        <v>10.85</v>
       </c>
       <c r="C11">
-        <v>11.81</v>
+        <v>10.6</v>
       </c>
       <c r="D11">
-        <v>2052.58</v>
+        <v>2284.91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.18</v>
+        <v>10.8</v>
       </c>
       <c r="C12">
-        <v>11.51</v>
+        <v>10.9</v>
       </c>
       <c r="D12">
-        <v>2047.52</v>
+        <v>2317.07</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.279999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="C13">
-        <v>12.66</v>
+        <v>10.85</v>
       </c>
       <c r="D13">
-        <v>2059.15</v>
+        <v>2328.22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.15</v>
+        <v>10.63</v>
       </c>
       <c r="C14">
-        <v>13.28</v>
+        <v>10.55</v>
       </c>
       <c r="D14">
-        <v>2043.65</v>
+        <v>2315.14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.15</v>
+        <v>10.99</v>
       </c>
       <c r="C15">
-        <v>12.92</v>
+        <v>10.65</v>
       </c>
       <c r="D15">
-        <v>2037.68</v>
+        <v>2320.91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.529999999999999</v>
+        <v>10.59</v>
       </c>
       <c r="C16">
-        <v>13.11</v>
+        <v>10.05</v>
       </c>
       <c r="D16">
-        <v>2051.92</v>
+        <v>2302.6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.789999999999999</v>
+        <v>10.83</v>
       </c>
       <c r="C17">
-        <v>13.09</v>
+        <v>9.82</v>
       </c>
       <c r="D17">
-        <v>2127.76</v>
+        <v>2291.3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.9</v>
+        <v>11.57</v>
       </c>
       <c r="C18">
-        <v>13.45</v>
+        <v>10.12</v>
       </c>
       <c r="D18">
-        <v>2134.89</v>
+        <v>2346.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.859999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="C19">
-        <v>12.89</v>
+        <v>10.21</v>
       </c>
       <c r="D19">
-        <v>2120.55</v>
+        <v>2358.98</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.880000000000001</v>
+        <v>11.83</v>
       </c>
       <c r="C20">
-        <v>12.74</v>
+        <v>10.18</v>
       </c>
       <c r="D20">
-        <v>2126.55</v>
+        <v>2382.48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.94</v>
+        <v>12.16</v>
       </c>
       <c r="C21">
-        <v>12.33</v>
+        <v>10.3</v>
       </c>
       <c r="D21">
-        <v>2110.38</v>
+        <v>2385.42</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.81</v>
+        <v>12.23</v>
       </c>
       <c r="C22">
-        <v>12.48</v>
+        <v>10.31</v>
       </c>
       <c r="D22">
-        <v>2123.85</v>
+        <v>2419.02</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.6</v>
+        <v>11.89</v>
       </c>
       <c r="C23">
-        <v>11.82</v>
+        <v>10.07</v>
       </c>
       <c r="D23">
-        <v>2078.5</v>
+        <v>2428.15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.68</v>
+        <v>12.09</v>
       </c>
       <c r="C24">
-        <v>11.76</v>
+        <v>10.15</v>
       </c>
       <c r="D24">
-        <v>2059.54</v>
+        <v>2433.13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.76</v>
+        <v>12.33</v>
       </c>
       <c r="C25">
-        <v>11.76</v>
+        <v>10.33</v>
       </c>
       <c r="D25">
-        <v>2067.83</v>
+        <v>2434.48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>9.449999999999999</v>
+        <v>12.76</v>
       </c>
       <c r="C26">
-        <v>10.85</v>
+        <v>11.36</v>
       </c>
       <c r="D26">
-        <v>2024.84</v>
+        <v>2418.53</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>9.279999999999999</v>
+        <v>13.69</v>
       </c>
       <c r="C27">
-        <v>10.65</v>
+        <v>11.94</v>
       </c>
       <c r="D27">
-        <v>2026.69</v>
+        <v>2432.4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>9.35</v>
+        <v>13.27</v>
       </c>
       <c r="C28">
-        <v>10.88</v>
+        <v>11.74</v>
       </c>
       <c r="D28">
-        <v>2033.19</v>
+        <v>2421.56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>9.369999999999999</v>
+        <v>12.76</v>
       </c>
       <c r="C29">
-        <v>10.69</v>
+        <v>12.16</v>
       </c>
       <c r="D29">
-        <v>2029.29</v>
+        <v>2382.91</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>9.02</v>
+        <v>12.93</v>
       </c>
       <c r="C30">
-        <v>10.71</v>
+        <v>12.11</v>
       </c>
       <c r="D30">
-        <v>2004.17</v>
+        <v>2397.18</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>9.210000000000001</v>
+        <v>13.09</v>
       </c>
       <c r="C31">
-        <v>10.8</v>
+        <v>11.53</v>
       </c>
       <c r="D31">
-        <v>2056.32</v>
+        <v>2325.95</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.289999999999999</v>
+        <v>12.36</v>
       </c>
       <c r="C32">
-        <v>10.9</v>
+        <v>11.55</v>
       </c>
       <c r="D32">
-        <v>2086.17</v>
+        <v>2314.16</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>9.300000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="C33">
-        <v>11.05</v>
+        <v>11.55</v>
       </c>
       <c r="D33">
-        <v>2074.42</v>
+        <v>2325.82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>9.640000000000001</v>
+        <v>12.43</v>
       </c>
       <c r="C34">
-        <v>11.4</v>
+        <v>10.97</v>
       </c>
       <c r="D34">
-        <v>2115.23</v>
+        <v>2293.34</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>9.65</v>
+        <v>11.95</v>
       </c>
       <c r="C35">
-        <v>11.37</v>
+        <v>10.87</v>
       </c>
       <c r="D35">
-        <v>2119.94</v>
+        <v>2313.22</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9.720000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="C36">
-        <v>10.58</v>
+        <v>11.09</v>
       </c>
       <c r="D36">
-        <v>2102.87</v>
+        <v>2365.59</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9.789999999999999</v>
+        <v>12.86</v>
       </c>
       <c r="C37">
-        <v>10.4</v>
+        <v>11.19</v>
       </c>
       <c r="D37">
-        <v>2104.93</v>
+        <v>2359.51</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>9.77</v>
+        <v>12.47</v>
       </c>
       <c r="C38">
-        <v>10.5</v>
+        <v>10.49</v>
       </c>
       <c r="D38">
-        <v>2098.7</v>
+        <v>2273.4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>9.67</v>
+        <v>12.82</v>
       </c>
       <c r="C39">
-        <v>10.37</v>
+        <v>10.72</v>
       </c>
       <c r="D39">
-        <v>2098.81</v>
+        <v>2326.31</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.949999999999999</v>
+        <v>13.19</v>
       </c>
       <c r="C40">
-        <v>10.54</v>
+        <v>10.85</v>
       </c>
       <c r="D40">
-        <v>2105.62</v>
+        <v>2347.18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>10.05</v>
+        <v>12.87</v>
       </c>
       <c r="C41">
-        <v>10.66</v>
+        <v>10.91</v>
       </c>
       <c r="D41">
-        <v>2131.69</v>
+        <v>2324.29</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10.82</v>
+        <v>12.54</v>
       </c>
       <c r="C42">
-        <v>10.4</v>
+        <v>11.16</v>
       </c>
       <c r="D42">
-        <v>2128.3</v>
+        <v>2318.61</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12.31</v>
       </c>
       <c r="C43">
-        <v>10.3</v>
+        <v>11.15</v>
       </c>
       <c r="D43">
-        <v>2132.76</v>
+        <v>2310.59</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10.66</v>
+        <v>12.1</v>
       </c>
       <c r="C44">
-        <v>10.29</v>
+        <v>10.82</v>
       </c>
       <c r="D44">
-        <v>2114.45</v>
+        <v>2286.6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>10.56</v>
+        <v>11.64</v>
       </c>
       <c r="C45">
-        <v>10.05</v>
+        <v>10.6</v>
       </c>
       <c r="D45">
-        <v>2115.99</v>
+        <v>2263.97</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9.99</v>
+        <v>11.65</v>
       </c>
       <c r="C46">
-        <v>9.99</v>
+        <v>10.8</v>
       </c>
       <c r="D46">
-        <v>2101.58</v>
+        <v>2270.28</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9.69</v>
+        <v>11.68</v>
       </c>
       <c r="C47">
-        <v>9.699999999999999</v>
+        <v>10.83</v>
       </c>
       <c r="D47">
-        <v>2066.21</v>
+        <v>2278.4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9.619999999999999</v>
+        <v>11.28</v>
       </c>
       <c r="C48">
-        <v>9.710000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D48">
-        <v>2058.94</v>
+        <v>2240.02</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>9.640000000000001</v>
+        <v>11.35</v>
       </c>
       <c r="C49">
-        <v>9.779999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="D49">
-        <v>2062.35</v>
+        <v>2257.43</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.460000000000001</v>
+        <v>12.01</v>
       </c>
       <c r="C50">
-        <v>9.41</v>
+        <v>10.66</v>
       </c>
       <c r="D50">
-        <v>2068.88</v>
+        <v>2317.37</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>9.57</v>
+        <v>12.15</v>
       </c>
       <c r="C51">
-        <v>9.6</v>
+        <v>10.71</v>
       </c>
       <c r="D51">
-        <v>2104.43</v>
+        <v>2324.24</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9.68</v>
+        <v>12.22</v>
       </c>
       <c r="C52">
-        <v>9.6</v>
+        <v>10.86</v>
       </c>
       <c r="D52">
-        <v>2117.05</v>
+        <v>2328.28</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.58</v>
+        <v>12.18</v>
       </c>
       <c r="C53">
-        <v>10.01</v>
+        <v>10.79</v>
       </c>
       <c r="D53">
-        <v>2114.03</v>
+        <v>2326.72</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9.65</v>
+        <v>11.76</v>
       </c>
       <c r="C54">
-        <v>9.83</v>
+        <v>10.38</v>
       </c>
       <c r="D54">
-        <v>2106</v>
+        <v>2297.67</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>9.48</v>
+        <v>12.18</v>
       </c>
       <c r="C55">
-        <v>9.73</v>
+        <v>10.24</v>
       </c>
       <c r="D55">
-        <v>2105.73</v>
+        <v>2301.26</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>9</v>
+        <v>12.19</v>
       </c>
       <c r="C56">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>2071.51</v>
+        <v>2236.3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>8.970000000000001</v>
+        <v>12.24</v>
       </c>
       <c r="C57">
-        <v>9.24</v>
+        <v>10.01</v>
       </c>
       <c r="D57">
-        <v>2069.07</v>
+        <v>2236.62</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>9.109999999999999</v>
+        <v>12.62</v>
       </c>
       <c r="C58">
-        <v>9.359999999999999</v>
+        <v>10.02</v>
       </c>
       <c r="D58">
-        <v>2079.27</v>
+        <v>2234.4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>8.92</v>
+        <v>12.68</v>
       </c>
       <c r="C59">
-        <v>8.949999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D59">
-        <v>2047.89</v>
+        <v>2227.74</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>9.029999999999999</v>
+        <v>12.38</v>
       </c>
       <c r="C60">
-        <v>9.279999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="D60">
-        <v>2055.42</v>
+        <v>2225.29</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>8.83</v>
+        <v>12.68</v>
       </c>
       <c r="C61">
-        <v>9.029999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="D61">
-        <v>2030.29</v>
+        <v>2211.59</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>8.859999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="C62">
-        <v>9.15</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D62">
-        <v>2014.72</v>
+        <v>2225.77</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8.98</v>
+        <v>12.51</v>
       </c>
       <c r="C63">
-        <v>9.31</v>
+        <v>9.49</v>
       </c>
       <c r="D63">
-        <v>2016.98</v>
+        <v>2226.13</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>8.949999999999999</v>
+        <v>12.08</v>
       </c>
       <c r="C64">
-        <v>9.220000000000001</v>
+        <v>9.19</v>
       </c>
       <c r="D64">
-        <v>2008.92</v>
+        <v>2219.55</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>9.029999999999999</v>
+        <v>12.08</v>
       </c>
       <c r="C65">
-        <v>9.34</v>
+        <v>9.08</v>
       </c>
       <c r="D65">
-        <v>2030.32</v>
+        <v>2206.78</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>8.880000000000001</v>
+        <v>11.53</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D66">
-        <v>2015.61</v>
+        <v>2181.94</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>8.869999999999999</v>
+        <v>11.68</v>
       </c>
       <c r="C67">
-        <v>9.800000000000001</v>
+        <v>8.92</v>
       </c>
       <c r="D67">
-        <v>2027.38</v>
+        <v>2194.85</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>8.58</v>
+        <v>11.83</v>
       </c>
       <c r="C68">
-        <v>9.789999999999999</v>
+        <v>9.18</v>
       </c>
       <c r="D68">
-        <v>2017.46</v>
+        <v>2193.8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7.91</v>
+        <v>11.76</v>
       </c>
       <c r="C69">
-        <v>8.83</v>
+        <v>9.08</v>
       </c>
       <c r="D69">
-        <v>1991.17</v>
+        <v>2197.6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7.48</v>
+        <v>12.16</v>
       </c>
       <c r="C70">
-        <v>8.43</v>
+        <v>9.33</v>
       </c>
       <c r="D70">
-        <v>1973.52</v>
+        <v>2244.64</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7.34</v>
+        <v>12.03</v>
       </c>
       <c r="C71">
-        <v>8.07</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D71">
-        <v>1963.49</v>
+        <v>2242.17</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7.53</v>
+        <v>12.34</v>
       </c>
       <c r="C72">
-        <v>8.25</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D72">
-        <v>1980.12</v>
+        <v>2184.54</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7.33</v>
+        <v>12.62</v>
       </c>
       <c r="C73">
-        <v>7.89</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D73">
-        <v>1959.77</v>
+        <v>2218.32</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7.46</v>
+        <v>12.49</v>
       </c>
       <c r="C74">
-        <v>8.119999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="D74">
-        <v>1975.14</v>
+        <v>2199.31</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>7.71</v>
+        <v>11.98</v>
       </c>
       <c r="C75">
-        <v>8.4</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D75">
-        <v>2031.91</v>
+        <v>2177.91</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7.73</v>
+        <v>12.58</v>
       </c>
       <c r="C76">
-        <v>8.31</v>
+        <v>7.96</v>
       </c>
       <c r="D76">
-        <v>2029.24</v>
+        <v>2174.12</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7.93</v>
+        <v>12.86</v>
       </c>
       <c r="C77">
-        <v>8.57</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D77">
-        <v>2061.79</v>
+        <v>2205.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>8.08</v>
+        <v>13.32</v>
       </c>
       <c r="C78">
-        <v>8.85</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D78">
-        <v>2083.77</v>
+        <v>2231.17</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>7.96</v>
+        <v>13.5</v>
       </c>
       <c r="C79">
-        <v>8.66</v>
+        <v>8.31</v>
       </c>
       <c r="D79">
-        <v>2074.7</v>
+        <v>2235.57</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.91</v>
+        <v>13.53</v>
       </c>
       <c r="C80">
-        <v>8.56</v>
+        <v>8.33</v>
       </c>
       <c r="D80">
-        <v>2082.73</v>
+        <v>2246.3</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7.83</v>
+        <v>13.29</v>
       </c>
       <c r="C81">
         <v>8.369999999999999</v>
       </c>
       <c r="D81">
-        <v>2061.48</v>
+        <v>2232.97</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>8.17</v>
+        <v>13.8</v>
       </c>
       <c r="C82">
-        <v>8.94</v>
+        <v>8.93</v>
       </c>
       <c r="D82">
-        <v>2150.62</v>
+        <v>2246.83</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>8.17</v>
+        <v>13.83</v>
       </c>
       <c r="C83">
-        <v>9.16</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D83">
-        <v>2160.34</v>
+        <v>2241.92</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>8.119999999999999</v>
+        <v>13.84</v>
       </c>
       <c r="C84">
-        <v>8.970000000000001</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D84">
-        <v>2162.46</v>
+        <v>2217.01</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>8.199999999999999</v>
+        <v>14.14</v>
       </c>
       <c r="C85">
-        <v>9.050000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="D85">
-        <v>2162.24</v>
+        <v>2224.8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>8.1</v>
+        <v>14.34</v>
       </c>
       <c r="C86">
-        <v>9.44</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D86">
-        <v>2168.35</v>
+        <v>2251.81</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>14.4</v>
       </c>
       <c r="C87">
-        <v>9.630000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D87">
-        <v>2153.31</v>
+        <v>2282.87</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7.98</v>
+        <v>14.37</v>
       </c>
       <c r="C88">
-        <v>9.52</v>
+        <v>9</v>
       </c>
       <c r="D88">
-        <v>2159.05</v>
+        <v>2299.99</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8.279999999999999</v>
+        <v>14.09</v>
       </c>
       <c r="C89">
-        <v>9.98</v>
+        <v>9.31</v>
       </c>
       <c r="D89">
-        <v>2213.61</v>
+        <v>2305.11</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>8.449999999999999</v>
+        <v>14.16</v>
       </c>
       <c r="C90">
-        <v>10.76</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D90">
-        <v>2219.13</v>
+        <v>2302.4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>8.5</v>
+        <v>13.84</v>
       </c>
       <c r="C91">
-        <v>10.23</v>
+        <v>8.9</v>
       </c>
       <c r="D91">
-        <v>2205.9</v>
+        <v>2275.67</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>8.58</v>
+        <v>14.44</v>
       </c>
       <c r="C92">
-        <v>10.19</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="D92">
-        <v>2233.25</v>
+        <v>2288.53</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>8.619999999999999</v>
+        <v>14.86</v>
       </c>
       <c r="C93">
-        <v>10.21</v>
+        <v>9.09</v>
       </c>
       <c r="D93">
-        <v>2269.13</v>
+        <v>2293.08</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8.82</v>
+        <v>15.33</v>
       </c>
       <c r="C94">
-        <v>10.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D94">
-        <v>2276.99</v>
+        <v>2321.32</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>9.09</v>
+        <v>15.33</v>
       </c>
       <c r="C95">
-        <v>10.36</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="D95">
-        <v>2285.36</v>
+        <v>2324.02</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>9.449999999999999</v>
+        <v>15.74</v>
       </c>
       <c r="C96">
-        <v>10.65</v>
+        <v>9.33</v>
       </c>
       <c r="D96">
-        <v>2276.07</v>
+        <v>2317.75</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9.640000000000001</v>
+        <v>15.45</v>
       </c>
       <c r="C97">
-        <v>10.33</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="D97">
-        <v>2275.34</v>
+        <v>2300.59</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>9.58</v>
+        <v>15.43</v>
       </c>
       <c r="C98">
-        <v>10.21</v>
+        <v>9.1</v>
       </c>
       <c r="D98">
-        <v>2283.66</v>
+        <v>2299.25</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>9.67</v>
+        <v>15.25</v>
       </c>
       <c r="C99">
-        <v>9.94</v>
+        <v>8.94</v>
       </c>
       <c r="D99">
-        <v>2243</v>
+        <v>2272.42</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>10.61</v>
+        <v>16.16</v>
       </c>
       <c r="C100">
-        <v>10.27</v>
+        <v>8.92</v>
       </c>
       <c r="D100">
-        <v>2311.74</v>
+        <v>2270.93</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>10.59</v>
+        <v>15.88</v>
       </c>
       <c r="C101">
-        <v>10.47</v>
+        <v>8.5</v>
       </c>
       <c r="D101">
-        <v>2325.68</v>
+        <v>2242.11</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>10.62</v>
+        <v>15.11</v>
       </c>
       <c r="C102">
-        <v>11.05</v>
+        <v>8.31</v>
       </c>
       <c r="D102">
-        <v>2309.5</v>
+        <v>2210.9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1816,13 +1816,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>10.85</v>
+        <v>14.76</v>
       </c>
       <c r="C103">
-        <v>10.6</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="D103">
-        <v>2284.91</v>
+        <v>2148.35</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1830,13 +1830,13 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>10.8</v>
+        <v>15.58</v>
       </c>
       <c r="C104">
-        <v>10.9</v>
+        <v>8.15</v>
       </c>
       <c r="D104">
-        <v>2317.07</v>
+        <v>2162.04</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1844,13 +1844,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>10.59</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>10.85</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D105">
-        <v>2328.22</v>
+        <v>2156.22</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1858,13 +1858,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>10.63</v>
+        <v>15.85</v>
       </c>
       <c r="C106">
-        <v>10.55</v>
+        <v>8.24</v>
       </c>
       <c r="D106">
-        <v>2315.14</v>
+        <v>2159.29</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1872,13 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>10.99</v>
+        <v>16.51</v>
       </c>
       <c r="C107">
-        <v>10.65</v>
+        <v>8.15</v>
       </c>
       <c r="D107">
-        <v>2320.91</v>
+        <v>2143.45</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1886,13 +1886,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10.59</v>
+        <v>15.99</v>
       </c>
       <c r="C108">
-        <v>10.05</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D108">
-        <v>2302.6</v>
+        <v>2084.02</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1900,13 +1900,13 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>10.83</v>
+        <v>15.66</v>
       </c>
       <c r="C109">
-        <v>9.82</v>
+        <v>8.24</v>
       </c>
       <c r="D109">
-        <v>2291.3</v>
+        <v>2073.09</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1914,13 +1914,13 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>11.57</v>
+        <v>14.68</v>
       </c>
       <c r="C110">
-        <v>10.12</v>
+        <v>7.55</v>
       </c>
       <c r="D110">
-        <v>2346.5</v>
+        <v>1963.23</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1928,13 +1928,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>11.9</v>
+        <v>14.99</v>
       </c>
       <c r="C111">
-        <v>10.21</v>
+        <v>7.3</v>
       </c>
       <c r="D111">
-        <v>2358.98</v>
+        <v>1959.51</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1942,13 +1942,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>11.83</v>
+        <v>15.42</v>
       </c>
       <c r="C112">
-        <v>10.18</v>
+        <v>7.24</v>
       </c>
       <c r="D112">
-        <v>2382.48</v>
+        <v>1951.49</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1956,13 +1956,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>12.16</v>
+        <v>14.92</v>
       </c>
       <c r="C113">
-        <v>10.3</v>
+        <v>7.17</v>
       </c>
       <c r="D113">
-        <v>2385.42</v>
+        <v>1950.01</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1970,13 +1970,13 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>12.23</v>
+        <v>14.64</v>
       </c>
       <c r="C114">
-        <v>10.31</v>
+        <v>6.98</v>
       </c>
       <c r="D114">
-        <v>2419.02</v>
+        <v>1979.21</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1984,13 +1984,13 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>11.89</v>
+        <v>15.39</v>
       </c>
       <c r="C115">
-        <v>10.07</v>
+        <v>7.13</v>
       </c>
       <c r="D115">
-        <v>2428.15</v>
+        <v>1995.24</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -1998,13 +1998,13 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>12.09</v>
+        <v>15.64</v>
       </c>
       <c r="C116">
-        <v>10.15</v>
+        <v>7.2</v>
       </c>
       <c r="D116">
-        <v>2433.13</v>
+        <v>2006.56</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2012,13 +2012,13 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>12.33</v>
+        <v>15.82</v>
       </c>
       <c r="C117">
-        <v>10.33</v>
+        <v>7.14</v>
       </c>
       <c r="D117">
-        <v>2434.48</v>
+        <v>1994.27</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2026,13 +2026,13 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>12.76</v>
+        <v>15.59</v>
       </c>
       <c r="C118">
-        <v>11.36</v>
+        <v>7.27</v>
       </c>
       <c r="D118">
-        <v>2418.53</v>
+        <v>2006.1</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2040,13 +2040,13 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>13.69</v>
+        <v>14.9</v>
       </c>
       <c r="C119">
-        <v>11.94</v>
+        <v>7.48</v>
       </c>
       <c r="D119">
-        <v>2432.4</v>
+        <v>2007.2</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2054,13 +2054,13 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>13.27</v>
+        <v>14.51</v>
       </c>
       <c r="C120">
-        <v>11.74</v>
+        <v>7.57</v>
       </c>
       <c r="D120">
-        <v>2421.56</v>
+        <v>1958.27</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2068,13 +2068,13 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>12.76</v>
+        <v>14.75</v>
       </c>
       <c r="C121">
-        <v>12.16</v>
+        <v>7.29</v>
       </c>
       <c r="D121">
-        <v>2382.91</v>
+        <v>1965.45</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2082,13 +2082,13 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>12.93</v>
+        <v>14.9</v>
       </c>
       <c r="C122">
-        <v>12.11</v>
+        <v>7.43</v>
       </c>
       <c r="D122">
-        <v>2397.18</v>
+        <v>2008.13</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2096,13 +2096,13 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>13.09</v>
+        <v>15.29</v>
       </c>
       <c r="C123">
-        <v>11.53</v>
+        <v>7.63</v>
       </c>
       <c r="D123">
-        <v>2325.95</v>
+        <v>2072.99</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2110,13 +2110,13 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>12.36</v>
+        <v>15.34</v>
       </c>
       <c r="C124">
-        <v>11.55</v>
+        <v>7.42</v>
       </c>
       <c r="D124">
-        <v>2314.16</v>
+        <v>2039.49</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2124,13 +2124,13 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>12.5</v>
+        <v>15.56</v>
       </c>
       <c r="C125">
-        <v>11.55</v>
+        <v>7.5</v>
       </c>
       <c r="D125">
-        <v>2325.82</v>
+        <v>2059.39</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2138,13 +2138,13 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>12.43</v>
+        <v>16.19</v>
       </c>
       <c r="C126">
-        <v>10.97</v>
+        <v>7.7</v>
       </c>
       <c r="D126">
-        <v>2293.34</v>
+        <v>2065.72</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2152,13 +2152,13 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>11.95</v>
+        <v>15.41</v>
       </c>
       <c r="C127">
-        <v>10.87</v>
+        <v>7.81</v>
       </c>
       <c r="D127">
-        <v>2313.22</v>
+        <v>2044.92</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2166,13 +2166,13 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>12.41</v>
+        <v>15.47</v>
       </c>
       <c r="C128">
-        <v>11.09</v>
+        <v>7.78</v>
       </c>
       <c r="D128">
-        <v>2365.59</v>
+        <v>2023.4</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2180,13 +2180,13 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>12.86</v>
+        <v>14.98</v>
       </c>
       <c r="C129">
-        <v>11.19</v>
+        <v>7.5</v>
       </c>
       <c r="D129">
-        <v>2359.51</v>
+        <v>1992.65</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2194,13 +2194,13 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>12.47</v>
+        <v>15.58</v>
       </c>
       <c r="C130">
-        <v>10.49</v>
+        <v>7.46</v>
       </c>
       <c r="D130">
-        <v>2273.4</v>
+        <v>2004.76</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2208,13 +2208,13 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>12.82</v>
+        <v>15.91</v>
       </c>
       <c r="C131">
-        <v>10.72</v>
+        <v>7.56</v>
       </c>
       <c r="D131">
-        <v>2326.31</v>
+        <v>2043.88</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2222,13 +2222,13 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>13.19</v>
+        <v>16.07</v>
       </c>
       <c r="C132">
-        <v>10.85</v>
+        <v>7.72</v>
       </c>
       <c r="D132">
-        <v>2347.18</v>
+        <v>2033.33</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>12.87</v>
+        <v>15.86</v>
       </c>
       <c r="C133">
-        <v>10.91</v>
+        <v>7.87</v>
       </c>
       <c r="D133">
-        <v>2324.29</v>
+        <v>2021.17</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2250,13 +2250,13 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>12.54</v>
+        <v>15.66</v>
       </c>
       <c r="C134">
-        <v>11.16</v>
+        <v>7.69</v>
       </c>
       <c r="D134">
-        <v>2318.61</v>
+        <v>2010.85</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2264,13 +2264,13 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>12.31</v>
+        <v>15.23</v>
       </c>
       <c r="C135">
-        <v>11.15</v>
+        <v>7.61</v>
       </c>
       <c r="D135">
-        <v>2310.59</v>
+        <v>1976.31</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2278,13 +2278,13 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>12.1</v>
+        <v>15.07</v>
       </c>
       <c r="C136">
-        <v>10.82</v>
+        <v>7.71</v>
       </c>
       <c r="D136">
-        <v>2286.6</v>
+        <v>1990.06</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2292,13 +2292,13 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>11.64</v>
+        <v>15.29</v>
       </c>
       <c r="C137">
-        <v>10.6</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D137">
-        <v>2263.97</v>
+        <v>1993.8</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2306,13 +2306,13 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>11.65</v>
+        <v>15.68</v>
       </c>
       <c r="C138">
-        <v>10.8</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D138">
-        <v>2270.28</v>
+        <v>2029.07</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2320,13 +2320,13 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.68</v>
+        <v>15.4</v>
       </c>
       <c r="C139">
-        <v>10.83</v>
+        <v>8.33</v>
       </c>
       <c r="D139">
-        <v>2278.4</v>
+        <v>2029.42</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2334,13 +2334,13 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>11.28</v>
+        <v>14.94</v>
       </c>
       <c r="C140">
-        <v>10.2</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D140">
-        <v>2240.02</v>
+        <v>2050.48</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2348,13 +2348,13 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>11.35</v>
+        <v>15.01</v>
       </c>
       <c r="C141">
-        <v>10.29</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D141">
-        <v>2257.43</v>
+        <v>2060.5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2362,13 +2362,13 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>12.01</v>
+        <v>14.51</v>
       </c>
       <c r="C142">
-        <v>10.66</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D142">
-        <v>2317.37</v>
+        <v>2046.78</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2376,13 +2376,13 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>12.15</v>
+        <v>14.5</v>
       </c>
       <c r="C143">
-        <v>10.71</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="D143">
-        <v>2324.24</v>
+        <v>2044.9</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2390,13 +2390,13 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>12.22</v>
+        <v>14.18</v>
       </c>
       <c r="C144">
-        <v>10.86</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D144">
-        <v>2328.28</v>
+        <v>2052.24</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2404,13 +2404,13 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>12.18</v>
+        <v>14.34</v>
       </c>
       <c r="C145">
-        <v>10.79</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D145">
-        <v>2326.72</v>
+        <v>2101.28</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2418,13 +2418,13 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>11.76</v>
+        <v>14.79</v>
       </c>
       <c r="C146">
-        <v>10.38</v>
+        <v>8.41</v>
       </c>
       <c r="D146">
-        <v>2297.67</v>
+        <v>2106.16</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2432,13 +2432,13 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>12.18</v>
+        <v>14.64</v>
       </c>
       <c r="C147">
-        <v>10.24</v>
+        <v>8.19</v>
       </c>
       <c r="D147">
-        <v>2301.26</v>
+        <v>2100.14</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2446,13 +2446,13 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>12.19</v>
+        <v>14.54</v>
       </c>
       <c r="C148">
-        <v>10</v>
+        <v>8.09</v>
       </c>
       <c r="D148">
-        <v>2236.3</v>
+        <v>2081.88</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2460,13 +2460,13 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>12.24</v>
+        <v>13.97</v>
       </c>
       <c r="C149">
-        <v>10.01</v>
+        <v>7.87</v>
       </c>
       <c r="D149">
-        <v>2236.62</v>
+        <v>2068.45</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2474,13 +2474,13 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>12.62</v>
+        <v>14.29</v>
       </c>
       <c r="C150">
-        <v>10.02</v>
+        <v>7.96</v>
       </c>
       <c r="D150">
-        <v>2234.4</v>
+        <v>2085.6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2488,13 +2488,13 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>12.68</v>
+        <v>14.2</v>
       </c>
       <c r="C151">
-        <v>9.949999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="D151">
-        <v>2227.74</v>
+        <v>2072.59</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2502,13 +2502,13 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>12.38</v>
+        <v>14.48</v>
       </c>
       <c r="C152">
-        <v>9.57</v>
+        <v>7.9</v>
       </c>
       <c r="D152">
-        <v>2225.29</v>
+        <v>2072.96</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2516,13 +2516,13 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>12.68</v>
+        <v>14.18</v>
       </c>
       <c r="C153">
-        <v>9.44</v>
+        <v>7.84</v>
       </c>
       <c r="D153">
-        <v>2211.59</v>
+        <v>2067.12</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2530,13 +2530,13 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>12.7</v>
+        <v>14.2</v>
       </c>
       <c r="C154">
-        <v>9.619999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="D154">
-        <v>2225.77</v>
+        <v>2057.46</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2544,13 +2544,13 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>12.51</v>
+        <v>14.74</v>
       </c>
       <c r="C155">
-        <v>9.49</v>
+        <v>8.67</v>
       </c>
       <c r="D155">
-        <v>2226.13</v>
+        <v>2096.47</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2558,13 +2558,13 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>12.08</v>
+        <v>14.7</v>
       </c>
       <c r="C156">
-        <v>9.19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D156">
-        <v>2219.55</v>
+        <v>2103.57</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2572,13 +2572,13 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>12.08</v>
+        <v>14.41</v>
       </c>
       <c r="C157">
-        <v>9.08</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D157">
-        <v>2206.78</v>
+        <v>2101.3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2586,13 +2586,13 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>11.53</v>
+        <v>14.23</v>
       </c>
       <c r="C158">
-        <v>8.800000000000001</v>
+        <v>10.57</v>
       </c>
       <c r="D158">
-        <v>2181.94</v>
+        <v>2097.23</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2600,13 +2600,13 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>11.68</v>
+        <v>14.94</v>
       </c>
       <c r="C159">
-        <v>8.92</v>
+        <v>10.77</v>
       </c>
       <c r="D159">
-        <v>2194.85</v>
+        <v>2098.38</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2614,13 +2614,13 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>11.83</v>
+        <v>14.96</v>
       </c>
       <c r="C160">
-        <v>9.18</v>
+        <v>9.69</v>
       </c>
       <c r="D160">
-        <v>2193.8</v>
+        <v>2098.45</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2628,13 +2628,13 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>11.76</v>
+        <v>15.03</v>
       </c>
       <c r="C161">
-        <v>9.08</v>
+        <v>9.99</v>
       </c>
       <c r="D161">
-        <v>2197.6</v>
+        <v>2123.11</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2642,13 +2642,13 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>12.16</v>
+        <v>15.08</v>
       </c>
       <c r="C162">
-        <v>9.33</v>
+        <v>9.82</v>
       </c>
       <c r="D162">
-        <v>2244.64</v>
+        <v>2127.62</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2656,13 +2656,13 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>12.03</v>
+        <v>15.07</v>
       </c>
       <c r="C163">
-        <v>9.220000000000001</v>
+        <v>9.51</v>
       </c>
       <c r="D163">
-        <v>2242.17</v>
+        <v>2122.43</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2670,13 +2670,13 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>12.34</v>
+        <v>14.86</v>
       </c>
       <c r="C164">
-        <v>8.779999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="D164">
-        <v>2184.54</v>
+        <v>2139.99</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2684,13 +2684,13 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>12.62</v>
+        <v>14.81</v>
       </c>
       <c r="C165">
-        <v>8.970000000000001</v>
+        <v>10.28</v>
       </c>
       <c r="D165">
-        <v>2218.32</v>
+        <v>2212.52</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2698,13 +2698,13 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>12.49</v>
+        <v>16.02</v>
       </c>
       <c r="C166">
-        <v>8.74</v>
+        <v>11.31</v>
       </c>
       <c r="D166">
-        <v>2199.31</v>
+        <v>2237.98</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2712,13 +2712,13 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>11.98</v>
+        <v>16.09</v>
       </c>
       <c r="C167">
-        <v>8.119999999999999</v>
+        <v>10.91</v>
       </c>
       <c r="D167">
-        <v>2177.91</v>
+        <v>2241.27</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2726,13 +2726,13 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>12.58</v>
+        <v>15.85</v>
       </c>
       <c r="C168">
-        <v>7.96</v>
+        <v>11.76</v>
       </c>
       <c r="D168">
-        <v>2174.12</v>
+        <v>2255.6</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2740,13 +2740,13 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>12.86</v>
+        <v>16.02</v>
       </c>
       <c r="C169">
-        <v>8.119999999999999</v>
+        <v>11.28</v>
       </c>
       <c r="D169">
-        <v>2205.5</v>
+        <v>2236.22</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2754,13 +2754,13 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13.32</v>
+        <v>16.85</v>
       </c>
       <c r="C170">
-        <v>8.279999999999999</v>
+        <v>11.18</v>
       </c>
       <c r="D170">
-        <v>2231.17</v>
+        <v>2231.4</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2768,13 +2768,13 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>13.5</v>
+        <v>16.67</v>
       </c>
       <c r="C171">
-        <v>8.31</v>
+        <v>10.32</v>
       </c>
       <c r="D171">
-        <v>2235.57</v>
+        <v>2185.56</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2782,13 +2782,13 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>13.53</v>
+        <v>16.9</v>
       </c>
       <c r="C172">
-        <v>8.33</v>
+        <v>10.64</v>
       </c>
       <c r="D172">
-        <v>2246.3</v>
+        <v>2191.85</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2796,13 +2796,13 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>13.29</v>
+        <v>17.15</v>
       </c>
       <c r="C173">
-        <v>8.369999999999999</v>
+        <v>10.88</v>
       </c>
       <c r="D173">
-        <v>2232.97</v>
+        <v>2221.04</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2810,13 +2810,13 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>13.8</v>
+        <v>17.69</v>
       </c>
       <c r="C174">
-        <v>8.93</v>
+        <v>11.09</v>
       </c>
       <c r="D174">
-        <v>2246.83</v>
+        <v>2207.53</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2824,13 +2824,13 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>13.83</v>
+        <v>17.34</v>
       </c>
       <c r="C175">
-        <v>8.789999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D175">
-        <v>2241.92</v>
+        <v>2198.51</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2838,13 +2838,13 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>13.84</v>
+        <v>17.34</v>
       </c>
       <c r="C176">
-        <v>8.550000000000001</v>
+        <v>10.28</v>
       </c>
       <c r="D176">
-        <v>2217.01</v>
+        <v>2155.81</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2852,13 +2852,13 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>14.14</v>
+        <v>17.51</v>
       </c>
       <c r="C177">
-        <v>8.66</v>
+        <v>9.77</v>
       </c>
       <c r="D177">
-        <v>2224.8</v>
+        <v>2160.03</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2866,13 +2866,13 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>14.34</v>
+        <v>17.57</v>
       </c>
       <c r="C178">
-        <v>8.789999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="D178">
-        <v>2251.81</v>
+        <v>2174.67</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2880,13 +2880,13 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>14.4</v>
+        <v>17.49</v>
       </c>
       <c r="C179">
-        <v>8.869999999999999</v>
+        <v>10.52</v>
       </c>
       <c r="D179">
-        <v>2282.87</v>
+        <v>2198.2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2894,13 +2894,13 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>14.37</v>
+        <v>16.93</v>
       </c>
       <c r="C180">
-        <v>9</v>
+        <v>11.42</v>
       </c>
       <c r="D180">
-        <v>2299.99</v>
+        <v>2211.77</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2908,13 +2908,13 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>14.09</v>
+        <v>16.99</v>
       </c>
       <c r="C181">
-        <v>9.31</v>
+        <v>10.99</v>
       </c>
       <c r="D181">
-        <v>2305.11</v>
+        <v>2190.93</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2922,13 +2922,13 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>14.16</v>
+        <v>17.62</v>
       </c>
       <c r="C182">
-        <v>9.119999999999999</v>
+        <v>12.09</v>
       </c>
       <c r="D182">
-        <v>2302.4</v>
+        <v>2228.15</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2936,13 +2936,13 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.84</v>
+        <v>17.47</v>
       </c>
       <c r="C183">
-        <v>8.9</v>
+        <v>12.94</v>
       </c>
       <c r="D183">
-        <v>2275.67</v>
+        <v>2237.77</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2950,13 +2950,13 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>14.44</v>
+        <v>17.2</v>
       </c>
       <c r="C184">
-        <v>9.119999999999999</v>
+        <v>12.45</v>
       </c>
       <c r="D184">
-        <v>2288.53</v>
+        <v>2233.41</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2964,13 +2964,13 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>14.86</v>
+        <v>16.54</v>
       </c>
       <c r="C185">
-        <v>9.09</v>
+        <v>11.84</v>
       </c>
       <c r="D185">
-        <v>2293.08</v>
+        <v>2193.07</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2978,13 +2978,13 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>15.33</v>
+        <v>16.59</v>
       </c>
       <c r="C186">
-        <v>9.130000000000001</v>
+        <v>11.93</v>
       </c>
       <c r="D186">
-        <v>2321.32</v>
+        <v>2188.54</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2992,13 +2992,13 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>15.33</v>
+        <v>16.37</v>
       </c>
       <c r="C187">
-        <v>9.220000000000001</v>
+        <v>11.72</v>
       </c>
       <c r="D187">
-        <v>2324.02</v>
+        <v>2193.78</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3006,13 +3006,13 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>15.74</v>
+        <v>17.61</v>
       </c>
       <c r="C188">
-        <v>9.33</v>
+        <v>11.99</v>
       </c>
       <c r="D188">
-        <v>2317.75</v>
+        <v>2229.24</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3020,13 +3020,13 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15.45</v>
+        <v>17.28</v>
       </c>
       <c r="C189">
-        <v>9.130000000000001</v>
+        <v>11.94</v>
       </c>
       <c r="D189">
-        <v>2300.59</v>
+        <v>2210.65</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3034,13 +3034,13 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>15.43</v>
+        <v>17.22</v>
       </c>
       <c r="C190">
-        <v>9.1</v>
+        <v>11.4</v>
       </c>
       <c r="D190">
-        <v>2299.25</v>
+        <v>2183.11</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3048,13 +3048,13 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>15.25</v>
+        <v>17.36</v>
       </c>
       <c r="C191">
-        <v>8.94</v>
+        <v>11.22</v>
       </c>
       <c r="D191">
-        <v>2272.42</v>
+        <v>2164.32</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3062,13 +3062,13 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>16.16</v>
+        <v>17.54</v>
       </c>
       <c r="C192">
-        <v>8.92</v>
+        <v>11.61</v>
       </c>
       <c r="D192">
-        <v>2270.93</v>
+        <v>2132.96</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3076,13 +3076,13 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>15.88</v>
+        <v>17.17</v>
       </c>
       <c r="C193">
-        <v>8.5</v>
+        <v>11.85</v>
       </c>
       <c r="D193">
-        <v>2242.11</v>
+        <v>2133.87</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3090,13 +3090,13 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>15.11</v>
+        <v>16.69</v>
       </c>
       <c r="C194">
-        <v>8.31</v>
+        <v>12.65</v>
       </c>
       <c r="D194">
-        <v>2210.9</v>
+        <v>2128.86</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3104,13 +3104,13 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.76</v>
+        <v>17.03</v>
       </c>
       <c r="C195">
-        <v>8.029999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="D195">
-        <v>2148.35</v>
+        <v>2160.46</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3118,13 +3118,13 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>15.58</v>
+        <v>16.84</v>
       </c>
       <c r="C196">
-        <v>8.15</v>
+        <v>11.25</v>
       </c>
       <c r="D196">
-        <v>2162.04</v>
+        <v>2141.61</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3132,13 +3132,13 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>16</v>
+        <v>16.7</v>
       </c>
       <c r="C197">
-        <v>8.220000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D197">
-        <v>2156.22</v>
+        <v>2149.56</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3146,13 +3146,13 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>15.85</v>
+        <v>16.98</v>
       </c>
       <c r="C198">
-        <v>8.24</v>
+        <v>10.56</v>
       </c>
       <c r="D198">
-        <v>2159.29</v>
+        <v>2149.63</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3160,13 +3160,13 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>16.51</v>
+        <v>17.38</v>
       </c>
       <c r="C199">
-        <v>8.15</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <v>2143.45</v>
+        <v>2157.24</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3174,13 +3174,13 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>15.99</v>
+        <v>18.07</v>
       </c>
       <c r="C200">
-        <v>8.199999999999999</v>
+        <v>11.11</v>
       </c>
       <c r="D200">
-        <v>2084.02</v>
+        <v>2139.61</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3188,13 +3188,13 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>15.66</v>
+        <v>17.69</v>
       </c>
       <c r="C201">
-        <v>8.24</v>
+        <v>10.54</v>
       </c>
       <c r="D201">
-        <v>2073.09</v>
+        <v>2129.4</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3202,13 +3202,13 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>14.68</v>
+        <v>16.71</v>
       </c>
       <c r="C202">
-        <v>7.55</v>
+        <v>10.47</v>
       </c>
       <c r="D202">
-        <v>1963.23</v>
+        <v>2106.13</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3216,13 +3216,13 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>14.99</v>
+        <v>16.73</v>
       </c>
       <c r="C203">
-        <v>7.3</v>
+        <v>10.6</v>
       </c>
       <c r="D203">
-        <v>1959.51</v>
+        <v>2109.47</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3230,13 +3230,13 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>15.42</v>
+        <v>16.85</v>
       </c>
       <c r="C204">
-        <v>7.24</v>
+        <v>10.37</v>
       </c>
       <c r="D204">
-        <v>1951.49</v>
+        <v>2126.77</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3244,13 +3244,13 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>14.92</v>
+        <v>16.85</v>
       </c>
       <c r="C205">
-        <v>7.17</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D205">
-        <v>1950.01</v>
+        <v>2087.94</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3258,13 +3258,13 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>14.64</v>
+        <v>17.06</v>
       </c>
       <c r="C206">
-        <v>6.98</v>
+        <v>9.66</v>
       </c>
       <c r="D206">
-        <v>1979.21</v>
+        <v>2100.51</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3272,13 +3272,13 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>15.39</v>
+        <v>17.18</v>
       </c>
       <c r="C207">
-        <v>7.13</v>
+        <v>9.85</v>
       </c>
       <c r="D207">
-        <v>1995.24</v>
+        <v>2135.83</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3286,13 +3286,13 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>15.64</v>
+        <v>17.74</v>
       </c>
       <c r="C208">
-        <v>7.2</v>
+        <v>10.33</v>
       </c>
       <c r="D208">
-        <v>2006.56</v>
+        <v>2197.22</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3300,13 +3300,13 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>15.82</v>
+        <v>17.94</v>
       </c>
       <c r="C209">
-        <v>7.14</v>
+        <v>10.75</v>
       </c>
       <c r="D209">
-        <v>1994.27</v>
+        <v>2193.12</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3314,13 +3314,13 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>15.59</v>
+        <v>17.93</v>
       </c>
       <c r="C210">
-        <v>7.27</v>
+        <v>10.62</v>
       </c>
       <c r="D210">
-        <v>2006.1</v>
+        <v>2206.61</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3328,13 +3328,13 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>14.9</v>
+        <v>17.77</v>
       </c>
       <c r="C211">
-        <v>7.48</v>
+        <v>10.79</v>
       </c>
       <c r="D211">
-        <v>2007.2</v>
+        <v>2205.77</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3342,13 +3342,13 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>14.51</v>
+        <v>17.94</v>
       </c>
       <c r="C212">
-        <v>7.57</v>
+        <v>10.78</v>
       </c>
       <c r="D212">
-        <v>1958.27</v>
+        <v>2196.38</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3356,13 +3356,13 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>14.75</v>
+        <v>18.15</v>
       </c>
       <c r="C213">
-        <v>7.29</v>
+        <v>10.55</v>
       </c>
       <c r="D213">
-        <v>1965.45</v>
+        <v>2186.11</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3370,13 +3370,13 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>14.9</v>
+        <v>18.2</v>
       </c>
       <c r="C214">
-        <v>7.43</v>
+        <v>10.63</v>
       </c>
       <c r="D214">
-        <v>2008.13</v>
+        <v>2183.07</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3384,13 +3384,13 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>15.29</v>
+        <v>19.01</v>
       </c>
       <c r="C215">
-        <v>7.63</v>
+        <v>10.71</v>
       </c>
       <c r="D215">
-        <v>2072.99</v>
+        <v>2201.07</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3398,13 +3398,13 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>15.34</v>
+        <v>19.49</v>
       </c>
       <c r="C216">
-        <v>7.42</v>
+        <v>10.76</v>
       </c>
       <c r="D216">
-        <v>2039.49</v>
+        <v>2219.37</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3412,13 +3412,13 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>15.56</v>
+        <v>19.58</v>
       </c>
       <c r="C217">
-        <v>7.5</v>
+        <v>10.58</v>
       </c>
       <c r="D217">
-        <v>2059.39</v>
+        <v>2220.5</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3426,13 +3426,13 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>16.19</v>
+        <v>18.51</v>
       </c>
       <c r="C218">
-        <v>7.7</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="D218">
-        <v>2065.72</v>
+        <v>2207.37</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3440,13 +3440,13 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>15.41</v>
+        <v>19.31</v>
       </c>
       <c r="C219">
-        <v>7.81</v>
+        <v>10.03</v>
       </c>
       <c r="D219">
-        <v>2044.92</v>
+        <v>2222.67</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3454,13 +3454,13 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>15.47</v>
+        <v>19.99</v>
       </c>
       <c r="C220">
-        <v>7.78</v>
+        <v>10.29</v>
       </c>
       <c r="D220">
-        <v>2023.4</v>
+        <v>2251.76</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3468,13 +3468,13 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.98</v>
+        <v>20.05</v>
       </c>
       <c r="C221">
-        <v>7.5</v>
+        <v>10.72</v>
       </c>
       <c r="D221">
-        <v>1992.65</v>
+        <v>2247.06</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3482,13 +3482,13 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>15.58</v>
+        <v>19.92</v>
       </c>
       <c r="C222">
-        <v>7.46</v>
+        <v>11.08</v>
       </c>
       <c r="D222">
-        <v>2004.76</v>
+        <v>2237.11</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3496,13 +3496,13 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.91</v>
+        <v>20.31</v>
       </c>
       <c r="C223">
-        <v>7.56</v>
+        <v>11.01</v>
       </c>
       <c r="D223">
-        <v>2043.88</v>
+        <v>2238.2</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3510,13 +3510,13 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>16.07</v>
+        <v>19.96</v>
       </c>
       <c r="C224">
-        <v>7.72</v>
+        <v>10.88</v>
       </c>
       <c r="D224">
-        <v>2033.33</v>
+        <v>2237.49</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3524,13 +3524,13 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>15.86</v>
+        <v>19.66</v>
       </c>
       <c r="C225">
-        <v>7.87</v>
+        <v>10.74</v>
       </c>
       <c r="D225">
-        <v>2021.17</v>
+        <v>2204.17</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3538,13 +3538,13 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>15.66</v>
+        <v>19.73</v>
       </c>
       <c r="C226">
-        <v>7.69</v>
+        <v>10.8</v>
       </c>
       <c r="D226">
-        <v>2010.85</v>
+        <v>2202.8</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3552,13 +3552,13 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>15.23</v>
+        <v>19.4</v>
       </c>
       <c r="C227">
-        <v>7.61</v>
+        <v>10.71</v>
       </c>
       <c r="D227">
-        <v>1976.31</v>
+        <v>2196.07</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3566,13 +3566,13 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>15.07</v>
+        <v>19.55</v>
       </c>
       <c r="C228">
-        <v>7.71</v>
+        <v>10.37</v>
       </c>
       <c r="D228">
-        <v>1990.06</v>
+        <v>2160.86</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3580,13 +3580,13 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>15.29</v>
+        <v>19.55</v>
       </c>
       <c r="C229">
-        <v>8.289999999999999</v>
+        <v>10.43</v>
       </c>
       <c r="D229">
-        <v>1993.8</v>
+        <v>2151.08</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3594,13 +3594,13 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>15.68</v>
+        <v>18.81</v>
       </c>
       <c r="C230">
-        <v>8.539999999999999</v>
+        <v>10.23</v>
       </c>
       <c r="D230">
-        <v>2029.07</v>
+        <v>2148.28</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3608,13 +3608,13 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>15.4</v>
+        <v>18.76</v>
       </c>
       <c r="C231">
-        <v>8.33</v>
+        <v>10.08</v>
       </c>
       <c r="D231">
-        <v>2029.42</v>
+        <v>2127.79</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3622,13 +3622,13 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.94</v>
+        <v>18.81</v>
       </c>
       <c r="C232">
-        <v>8.390000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="D232">
-        <v>2050.48</v>
+        <v>2084.79</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3636,13 +3636,13 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>15.01</v>
+        <v>18.44</v>
       </c>
       <c r="C233">
-        <v>8.369999999999999</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D233">
-        <v>2060.5</v>
+        <v>2089.71</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3650,13 +3650,13 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.51</v>
+        <v>18.79</v>
       </c>
       <c r="C234">
-        <v>8.130000000000001</v>
+        <v>9.85</v>
       </c>
       <c r="D234">
-        <v>2046.78</v>
+        <v>2092.91</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3664,13 +3664,13 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.5</v>
+        <v>19.06</v>
       </c>
       <c r="C235">
-        <v>8.039999999999999</v>
+        <v>10.01</v>
       </c>
       <c r="D235">
-        <v>2044.9</v>
+        <v>2106.35</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3678,13 +3678,13 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.18</v>
+        <v>19.38</v>
       </c>
       <c r="C236">
-        <v>8.289999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="D236">
-        <v>2052.24</v>
+        <v>2073.1</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3692,13 +3692,13 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.34</v>
+        <v>19.55</v>
       </c>
       <c r="C237">
-        <v>8.449999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D237">
-        <v>2101.28</v>
+        <v>2101.25</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3706,13 +3706,13 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.79</v>
+        <v>19.46</v>
       </c>
       <c r="C238">
-        <v>8.41</v>
+        <v>10.08</v>
       </c>
       <c r="D238">
-        <v>2106.16</v>
+        <v>2097.53</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3720,13 +3720,13 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>14.64</v>
+        <v>20.16</v>
       </c>
       <c r="C239">
-        <v>8.19</v>
+        <v>10.15</v>
       </c>
       <c r="D239">
-        <v>2100.14</v>
+        <v>2115.98</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3734,13 +3734,13 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>14.54</v>
+        <v>19.93</v>
       </c>
       <c r="C240">
-        <v>8.09</v>
+        <v>10.15</v>
       </c>
       <c r="D240">
-        <v>2081.88</v>
+        <v>2109.39</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3748,13 +3748,13 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>13.97</v>
+        <v>19.71</v>
       </c>
       <c r="C241">
-        <v>7.87</v>
+        <v>9.93</v>
       </c>
       <c r="D241">
-        <v>2068.45</v>
+        <v>2083.14</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3762,13 +3762,13 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>14.29</v>
+        <v>19.07</v>
       </c>
       <c r="C242">
-        <v>7.96</v>
+        <v>9.16</v>
       </c>
       <c r="D242">
-        <v>2085.6</v>
+        <v>2045.71</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3776,13 +3776,13 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>14.2</v>
+        <v>19.02</v>
       </c>
       <c r="C243">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D243">
-        <v>2072.59</v>
+        <v>2047.32</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3790,13 +3790,13 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>14.48</v>
+        <v>18.69</v>
       </c>
       <c r="C244">
-        <v>7.9</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="D244">
-        <v>2072.96</v>
+        <v>2044.34</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3804,13 +3804,13 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>14.18</v>
+        <v>18.66</v>
       </c>
       <c r="C245">
-        <v>7.84</v>
+        <v>10.07</v>
       </c>
       <c r="D245">
-        <v>2067.12</v>
+        <v>2027.62</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3818,13 +3818,13 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>14.2</v>
+        <v>18.72</v>
       </c>
       <c r="C246">
-        <v>7.88</v>
+        <v>9.57</v>
       </c>
       <c r="D246">
-        <v>2057.46</v>
+        <v>2013.3</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3832,13 +3832,13 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>14.74</v>
+        <v>17.83</v>
       </c>
       <c r="C247">
-        <v>8.67</v>
+        <v>9.31</v>
       </c>
       <c r="D247">
-        <v>2096.47</v>
+        <v>2009.56</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3846,13 +3846,13 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>14.7</v>
+        <v>17.94</v>
       </c>
       <c r="C248">
-        <v>9.199999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="D248">
-        <v>2103.57</v>
+        <v>2026.84</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3860,13 +3860,13 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>14.41</v>
+        <v>18.05</v>
       </c>
       <c r="C249">
-        <v>9.609999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="D249">
-        <v>2101.3</v>
+        <v>2023.35</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3874,13 +3874,13 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>14.23</v>
+        <v>18.31</v>
       </c>
       <c r="C250">
-        <v>10.57</v>
+        <v>9.41</v>
       </c>
       <c r="D250">
-        <v>2097.23</v>
+        <v>2023.7</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3888,13 +3888,13 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>14.94</v>
+        <v>17.83</v>
       </c>
       <c r="C251">
-        <v>10.77</v>
+        <v>9.18</v>
       </c>
       <c r="D251">
-        <v>2098.38</v>
+        <v>2004.95</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3902,13 +3902,13 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>14.96</v>
+        <v>17.96</v>
       </c>
       <c r="C252">
-        <v>9.69</v>
+        <v>9.09</v>
       </c>
       <c r="D252">
-        <v>2098.45</v>
+        <v>1991.25</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3916,13 +3916,13 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>15.03</v>
+        <v>18.25</v>
       </c>
       <c r="C253">
-        <v>9.99</v>
+        <v>9.43</v>
       </c>
       <c r="D253">
-        <v>2123.11</v>
+        <v>2008.31</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3930,13 +3930,13 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>15.08</v>
+        <v>18.77</v>
       </c>
       <c r="C254">
-        <v>9.82</v>
+        <v>9.69</v>
       </c>
       <c r="D254">
-        <v>2127.62</v>
+        <v>2051.75</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3944,13 +3944,13 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>15.07</v>
+        <v>18.99</v>
       </c>
       <c r="C255">
-        <v>9.51</v>
+        <v>9.66</v>
       </c>
       <c r="D255">
-        <v>2122.43</v>
+        <v>2042.18</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3958,13 +3958,13 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>14.86</v>
+        <v>18.85</v>
       </c>
       <c r="C256">
-        <v>10.13</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D256">
-        <v>2139.99</v>
+        <v>2054.39</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3972,13 +3972,13 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>14.81</v>
+        <v>19.38</v>
       </c>
       <c r="C257">
-        <v>10.28</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D257">
-        <v>2212.52</v>
+        <v>2033.3</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3986,13 +3986,13 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>16.02</v>
+        <v>19.1</v>
       </c>
       <c r="C258">
-        <v>11.31</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D258">
-        <v>2237.98</v>
+        <v>2038.51</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4000,13 +4000,13 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>16.09</v>
+        <v>19.13</v>
       </c>
       <c r="C259">
-        <v>10.91</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D259">
-        <v>2241.27</v>
+        <v>2049.91</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4014,13 +4014,13 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>15.85</v>
+        <v>19.37</v>
       </c>
       <c r="C260">
-        <v>11.76</v>
+        <v>9.31</v>
       </c>
       <c r="D260">
-        <v>2255.6</v>
+        <v>2033.08</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4028,13 +4028,13 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>16.02</v>
+        <v>19.8</v>
       </c>
       <c r="C261">
-        <v>11.28</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D261">
-        <v>2236.22</v>
+        <v>2044.5</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4042,13 +4042,13 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>16.85</v>
+        <v>19.88</v>
       </c>
       <c r="C262">
-        <v>11.18</v>
+        <v>9.65</v>
       </c>
       <c r="D262">
-        <v>2231.4</v>
+        <v>2086.07</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4056,13 +4056,13 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>16.67</v>
+        <v>20.12</v>
       </c>
       <c r="C263">
-        <v>10.32</v>
+        <v>10.62</v>
       </c>
       <c r="D263">
-        <v>2185.56</v>
+        <v>2103.67</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4070,13 +4070,13 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>16.9</v>
+        <v>19.97</v>
       </c>
       <c r="C264">
-        <v>10.64</v>
+        <v>10.9</v>
       </c>
       <c r="D264">
-        <v>2191.85</v>
+        <v>2109.96</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4084,13 +4084,13 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>17.15</v>
+        <v>19.62</v>
       </c>
       <c r="C265">
-        <v>10.88</v>
+        <v>10.58</v>
       </c>
       <c r="D265">
-        <v>2221.04</v>
+        <v>2098.4</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4098,13 +4098,13 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>17.69</v>
+        <v>19.61</v>
       </c>
       <c r="C266">
-        <v>11.09</v>
+        <v>10.76</v>
       </c>
       <c r="D266">
-        <v>2207.53</v>
+        <v>2115.85</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4112,13 +4112,13 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>17.34</v>
+        <v>19.9</v>
       </c>
       <c r="C267">
-        <v>11.2</v>
+        <v>10.95</v>
       </c>
       <c r="D267">
-        <v>2198.51</v>
+        <v>2135.42</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4126,13 +4126,13 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>17.34</v>
+        <v>19.56</v>
       </c>
       <c r="C268">
-        <v>10.28</v>
+        <v>10.89</v>
       </c>
       <c r="D268">
-        <v>2155.81</v>
+        <v>2119.07</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4140,13 +4140,13 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>17.51</v>
+        <v>20.45</v>
       </c>
       <c r="C269">
-        <v>9.77</v>
+        <v>11.58</v>
       </c>
       <c r="D269">
-        <v>2160.03</v>
+        <v>2142.55</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4154,13 +4154,13 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>17.57</v>
+        <v>20.4</v>
       </c>
       <c r="C270">
-        <v>10.13</v>
+        <v>12.74</v>
       </c>
       <c r="D270">
-        <v>2174.67</v>
+        <v>2138.78</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4168,13 +4168,13 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>17.49</v>
+        <v>19.77</v>
       </c>
       <c r="C271">
-        <v>10.52</v>
+        <v>12.21</v>
       </c>
       <c r="D271">
-        <v>2198.2</v>
+        <v>2113.69</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4182,13 +4182,13 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>16.93</v>
+        <v>20.03</v>
       </c>
       <c r="C272">
-        <v>11.42</v>
+        <v>13.12</v>
       </c>
       <c r="D272">
-        <v>2211.77</v>
+        <v>2076.69</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4196,13 +4196,13 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>16.99</v>
+        <v>19.46</v>
       </c>
       <c r="C273">
-        <v>10.99</v>
+        <v>11.81</v>
       </c>
       <c r="D273">
-        <v>2190.93</v>
+        <v>2034.22</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4210,13 +4210,13 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>17.62</v>
+        <v>19.37</v>
       </c>
       <c r="C274">
-        <v>12.09</v>
+        <v>12.39</v>
       </c>
       <c r="D274">
-        <v>2228.15</v>
+        <v>2041.25</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4224,13 +4224,13 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>17.47</v>
+        <v>18.91</v>
       </c>
       <c r="C275">
-        <v>12.94</v>
+        <v>12.5</v>
       </c>
       <c r="D275">
-        <v>2237.77</v>
+        <v>2047.35</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4238,13 +4238,13 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>17.2</v>
+        <v>19.27</v>
       </c>
       <c r="C276">
-        <v>12.45</v>
+        <v>12.09</v>
       </c>
       <c r="D276">
-        <v>2233.41</v>
+        <v>2056.3</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4252,13 +4252,13 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>16.54</v>
+        <v>19.01</v>
       </c>
       <c r="C277">
-        <v>11.84</v>
+        <v>13.3</v>
       </c>
       <c r="D277">
-        <v>2193.07</v>
+        <v>2075.24</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4266,13 +4266,13 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>16.59</v>
+        <v>19.21</v>
       </c>
       <c r="C278">
-        <v>11.93</v>
+        <v>14.63</v>
       </c>
       <c r="D278">
-        <v>2188.54</v>
+        <v>2071.47</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4280,13 +4280,13 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>16.37</v>
+        <v>18.96</v>
       </c>
       <c r="C279">
-        <v>11.72</v>
+        <v>14.34</v>
       </c>
       <c r="D279">
-        <v>2193.78</v>
+        <v>2053.08</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4294,13 +4294,13 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>17.61</v>
+        <v>18.61</v>
       </c>
       <c r="C280">
-        <v>11.99</v>
+        <v>14.06</v>
       </c>
       <c r="D280">
-        <v>2229.24</v>
+        <v>2059.58</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4308,13 +4308,13 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>17.28</v>
+        <v>18.42</v>
       </c>
       <c r="C281">
-        <v>11.94</v>
+        <v>13.67</v>
       </c>
       <c r="D281">
-        <v>2210.65</v>
+        <v>2057.91</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4322,13 +4322,13 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>17.22</v>
+        <v>17.64</v>
       </c>
       <c r="C282">
-        <v>11.4</v>
+        <v>12.72</v>
       </c>
       <c r="D282">
-        <v>2183.11</v>
+        <v>1999.06</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4336,13 +4336,13 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>17.36</v>
+        <v>17.73</v>
       </c>
       <c r="C283">
-        <v>11.22</v>
+        <v>12.55</v>
       </c>
       <c r="D283">
-        <v>2164.32</v>
+        <v>2001.16</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4350,13 +4350,13 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>17.54</v>
+        <v>17.4</v>
       </c>
       <c r="C284">
-        <v>11.61</v>
+        <v>12.17</v>
       </c>
       <c r="D284">
-        <v>2132.96</v>
+        <v>1997.69</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4364,13 +4364,13 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>17.17</v>
+        <v>17.52</v>
       </c>
       <c r="C285">
-        <v>11.85</v>
+        <v>12.14</v>
       </c>
       <c r="D285">
-        <v>2133.87</v>
+        <v>2019.11</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4378,13 +4378,13 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>16.69</v>
+        <v>17.34</v>
       </c>
       <c r="C286">
-        <v>12.65</v>
+        <v>12.04</v>
       </c>
       <c r="D286">
-        <v>2128.86</v>
+        <v>2004.34</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4392,13 +4392,13 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>17.03</v>
+        <v>17.71</v>
       </c>
       <c r="C287">
-        <v>12.5</v>
+        <v>12.33</v>
       </c>
       <c r="D287">
-        <v>2160.46</v>
+        <v>2023.67</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4406,13 +4406,13 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>16.84</v>
+        <v>17.83</v>
       </c>
       <c r="C288">
-        <v>11.25</v>
+        <v>12.32</v>
       </c>
       <c r="D288">
-        <v>2141.61</v>
+        <v>2025.2</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4420,13 +4420,13 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>16.7</v>
+        <v>18</v>
       </c>
       <c r="C289">
-        <v>10.2</v>
+        <v>12.07</v>
       </c>
       <c r="D289">
-        <v>2149.56</v>
+        <v>2021.73</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4434,13 +4434,13 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>16.98</v>
+        <v>17.5</v>
       </c>
       <c r="C290">
-        <v>10.56</v>
+        <v>13.22</v>
       </c>
       <c r="D290">
-        <v>2149.63</v>
+        <v>1993.48</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4448,13 +4448,13 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>17.38</v>
+        <v>17.64</v>
       </c>
       <c r="C291">
-        <v>11</v>
+        <v>12.73</v>
       </c>
       <c r="D291">
-        <v>2157.24</v>
+        <v>2047.62</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4462,13 +4462,13 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>18.07</v>
+        <v>17.99</v>
       </c>
       <c r="C292">
-        <v>11.11</v>
+        <v>12.88</v>
       </c>
       <c r="D292">
-        <v>2139.61</v>
+        <v>2066.28</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4476,13 +4476,13 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>17.69</v>
+        <v>17.98</v>
       </c>
       <c r="C293">
-        <v>10.54</v>
+        <v>12.55</v>
       </c>
       <c r="D293">
-        <v>2129.4</v>
+        <v>2067.31</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4490,13 +4490,13 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>16.71</v>
+        <v>17.77</v>
       </c>
       <c r="C294">
-        <v>10.47</v>
+        <v>12.24</v>
       </c>
       <c r="D294">
-        <v>2106.13</v>
+        <v>2063.67</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4504,13 +4504,13 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>16.73</v>
+        <v>17.36</v>
       </c>
       <c r="C295">
-        <v>10.6</v>
+        <v>12.24</v>
       </c>
       <c r="D295">
-        <v>2109.47</v>
+        <v>2046.59</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4518,13 +4518,13 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>16.85</v>
+        <v>17.59</v>
       </c>
       <c r="C296">
-        <v>10.37</v>
+        <v>11.35</v>
       </c>
       <c r="D296">
-        <v>2126.77</v>
+        <v>2041.71</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4532,13 +4532,13 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>16.85</v>
+        <v>18.02</v>
       </c>
       <c r="C297">
-        <v>9.460000000000001</v>
+        <v>11.35</v>
       </c>
       <c r="D297">
-        <v>2087.94</v>
+        <v>2033.31</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4546,13 +4546,13 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>17.06</v>
+        <v>18.27</v>
       </c>
       <c r="C298">
-        <v>9.66</v>
+        <v>11.48</v>
       </c>
       <c r="D298">
-        <v>2100.51</v>
+        <v>2047.46</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4560,13 +4560,13 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>17.18</v>
+        <v>18.09</v>
       </c>
       <c r="C299">
-        <v>9.85</v>
+        <v>11.5</v>
       </c>
       <c r="D299">
-        <v>2135.83</v>
+        <v>2058.99</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4574,13 +4574,13 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>17.74</v>
+        <v>17.81</v>
       </c>
       <c r="C300">
-        <v>10.33</v>
+        <v>11.72</v>
       </c>
       <c r="D300">
-        <v>2197.22</v>
+        <v>2043.7</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4588,13 +4588,13 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>17.94</v>
+        <v>17.71</v>
       </c>
       <c r="C301">
-        <v>10.75</v>
+        <v>11.53</v>
       </c>
       <c r="D301">
-        <v>2193.12</v>
+        <v>2058.83</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4602,13 +4602,13 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>17.93</v>
+        <v>17.64</v>
       </c>
       <c r="C302">
-        <v>10.62</v>
+        <v>11.77</v>
       </c>
       <c r="D302">
-        <v>2206.61</v>
+        <v>2098.28</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4616,13 +4616,13 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>17.77</v>
+        <v>17.8</v>
       </c>
       <c r="C303">
-        <v>10.79</v>
+        <v>11.84</v>
       </c>
       <c r="D303">
-        <v>2205.77</v>
+        <v>2105.24</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4630,13 +4630,13 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>17.94</v>
+        <v>17.92</v>
       </c>
       <c r="C304">
-        <v>10.78</v>
+        <v>11.8</v>
       </c>
       <c r="D304">
-        <v>2196.38</v>
+        <v>2134.3</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4644,13 +4644,13 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>18.15</v>
+        <v>17.68</v>
       </c>
       <c r="C305">
-        <v>10.55</v>
+        <v>12.04</v>
       </c>
       <c r="D305">
-        <v>2186.11</v>
+        <v>2130.54</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4658,13 +4658,13 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>18.2</v>
+        <v>17.68</v>
       </c>
       <c r="C306">
-        <v>10.63</v>
+        <v>12.75</v>
       </c>
       <c r="D306">
-        <v>2183.07</v>
+        <v>2131.54</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4672,13 +4672,13 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>19.01</v>
+        <v>17.64</v>
       </c>
       <c r="C307">
-        <v>10.71</v>
+        <v>12.48</v>
       </c>
       <c r="D307">
-        <v>2201.07</v>
+        <v>2101.6</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4686,13 +4686,13 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>19.49</v>
+        <v>18.01</v>
       </c>
       <c r="C308">
-        <v>10.76</v>
+        <v>12.6</v>
       </c>
       <c r="D308">
-        <v>2219.37</v>
+        <v>2105.12</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4700,13 +4700,13 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>19.58</v>
+        <v>17.94</v>
       </c>
       <c r="C309">
-        <v>10.58</v>
+        <v>12.72</v>
       </c>
       <c r="D309">
-        <v>2220.5</v>
+        <v>2098.89</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4714,13 +4714,13 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>18.51</v>
+        <v>18.46</v>
       </c>
       <c r="C310">
-        <v>9.720000000000001</v>
+        <v>12.49</v>
       </c>
       <c r="D310">
-        <v>2207.37</v>
+        <v>2097.75</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4728,13 +4728,13 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>19.31</v>
+        <v>18.3</v>
       </c>
       <c r="C311">
-        <v>10.03</v>
+        <v>11.77</v>
       </c>
       <c r="D311">
-        <v>2222.67</v>
+        <v>2065.83</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4742,13 +4742,13 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>19.99</v>
+        <v>18.72</v>
       </c>
       <c r="C312">
-        <v>10.29</v>
+        <v>11.49</v>
       </c>
       <c r="D312">
-        <v>2251.76</v>
+        <v>2072.83</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4756,13 +4756,13 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>20.05</v>
+        <v>18.92</v>
       </c>
       <c r="C313">
-        <v>10.72</v>
+        <v>11.55</v>
       </c>
       <c r="D313">
-        <v>2247.06</v>
+        <v>2066.36</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4770,13 +4770,13 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>19.92</v>
+        <v>18.86</v>
       </c>
       <c r="C314">
-        <v>11.08</v>
+        <v>11.67</v>
       </c>
       <c r="D314">
-        <v>2237.11</v>
+        <v>2057.03</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4784,13 +4784,13 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>20.31</v>
+        <v>17.61</v>
       </c>
       <c r="C315">
-        <v>11.01</v>
+        <v>11.7</v>
       </c>
       <c r="D315">
-        <v>2238.2</v>
+        <v>2036.52</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4798,13 +4798,13 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>19.96</v>
+        <v>15.85</v>
       </c>
       <c r="C316">
-        <v>10.88</v>
+        <v>12.19</v>
       </c>
       <c r="D316">
-        <v>2237.49</v>
+        <v>2003.49</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4812,13 +4812,13 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>19.66</v>
+        <v>15.72</v>
       </c>
       <c r="C317">
-        <v>10.74</v>
+        <v>11.8</v>
       </c>
       <c r="D317">
-        <v>2204.17</v>
+        <v>2020.34</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4826,13 +4826,13 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>19.73</v>
+        <v>15.9</v>
       </c>
       <c r="C318">
-        <v>10.8</v>
+        <v>11.53</v>
       </c>
       <c r="D318">
-        <v>2202.8</v>
+        <v>2026.36</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4840,13 +4840,13 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>19.4</v>
+        <v>14.77</v>
       </c>
       <c r="C319">
-        <v>10.71</v>
+        <v>11.67</v>
       </c>
       <c r="D319">
-        <v>2196.07</v>
+        <v>2027.35</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4854,13 +4854,13 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>19.55</v>
+        <v>14.85</v>
       </c>
       <c r="C320">
-        <v>10.37</v>
+        <v>11.75</v>
       </c>
       <c r="D320">
-        <v>2160.86</v>
+        <v>2028.04</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4868,13 +4868,13 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>19.55</v>
+        <v>14.19</v>
       </c>
       <c r="C321">
-        <v>10.43</v>
+        <v>11.36</v>
       </c>
       <c r="D321">
-        <v>2151.08</v>
+        <v>2010.08</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4882,13 +4882,13 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>18.81</v>
+        <v>14.33</v>
       </c>
       <c r="C322">
-        <v>10.23</v>
+        <v>11.34</v>
       </c>
       <c r="D322">
-        <v>2148.28</v>
+        <v>2015.27</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4896,13 +4896,13 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>18.76</v>
+        <v>13.57</v>
       </c>
       <c r="C323">
-        <v>10.08</v>
+        <v>11.07</v>
       </c>
       <c r="D323">
-        <v>2127.79</v>
+        <v>2011.14</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4910,13 +4910,13 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>18.81</v>
+        <v>13.79</v>
       </c>
       <c r="C324">
-        <v>10.13</v>
+        <v>11.3</v>
       </c>
       <c r="D324">
-        <v>2084.79</v>
+        <v>2052.87</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4924,13 +4924,13 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>18.44</v>
+        <v>13.96</v>
       </c>
       <c r="C325">
-        <v>9.869999999999999</v>
+        <v>11.94</v>
       </c>
       <c r="D325">
-        <v>2089.71</v>
+        <v>2050.73</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4938,13 +4938,13 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>18.79</v>
+        <v>13.85</v>
       </c>
       <c r="C326">
-        <v>9.85</v>
+        <v>11.58</v>
       </c>
       <c r="D326">
-        <v>2092.91</v>
+        <v>2047.91</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4952,13 +4952,13 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>19.06</v>
+        <v>13.24</v>
       </c>
       <c r="C327">
-        <v>10.01</v>
+        <v>11.48</v>
       </c>
       <c r="D327">
-        <v>2106.35</v>
+        <v>2024.97</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4966,13 +4966,13 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>19.38</v>
+        <v>13.38</v>
       </c>
       <c r="C328">
-        <v>9.85</v>
+        <v>11.46</v>
       </c>
       <c r="D328">
-        <v>2073.1</v>
+        <v>2026.5</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4980,13 +4980,13 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>19.55</v>
+        <v>13.11</v>
       </c>
       <c r="C329">
-        <v>9.949999999999999</v>
+        <v>11.34</v>
       </c>
       <c r="D329">
-        <v>2101.25</v>
+        <v>2005.18</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4994,13 +4994,13 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>19.46</v>
+        <v>13.2</v>
       </c>
       <c r="C330">
-        <v>10.08</v>
+        <v>11.52</v>
       </c>
       <c r="D330">
-        <v>2097.53</v>
+        <v>2008.12</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5008,13 +5008,13 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>20.16</v>
+        <v>13.62</v>
       </c>
       <c r="C331">
-        <v>10.15</v>
+        <v>11.57</v>
       </c>
       <c r="D331">
-        <v>2115.98</v>
+        <v>2024.95</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5022,13 +5022,13 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>19.93</v>
+        <v>13.52</v>
       </c>
       <c r="C332">
-        <v>10.15</v>
+        <v>11.99</v>
       </c>
       <c r="D332">
-        <v>2109.39</v>
+        <v>2021.29</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5036,13 +5036,13 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>19.71</v>
+        <v>13.74</v>
       </c>
       <c r="C333">
-        <v>9.93</v>
+        <v>12.01</v>
       </c>
       <c r="D333">
-        <v>2083.14</v>
+        <v>2034.57</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5050,13 +5050,13 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>19.07</v>
+        <v>13.79</v>
       </c>
       <c r="C334">
-        <v>9.16</v>
+        <v>12.12</v>
       </c>
       <c r="D334">
-        <v>2045.71</v>
+        <v>2041.48</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5064,13 +5064,13 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>19.02</v>
+        <v>14.22</v>
       </c>
       <c r="C335">
-        <v>9.300000000000001</v>
+        <v>12.12</v>
       </c>
       <c r="D335">
-        <v>2047.32</v>
+        <v>2034.56</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5078,13 +5078,13 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>18.69</v>
+        <v>14.33</v>
       </c>
       <c r="C336">
-        <v>9.880000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="D336">
-        <v>2044.34</v>
+        <v>2050.23</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5092,13 +5092,13 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>18.66</v>
+        <v>14.15</v>
       </c>
       <c r="C337">
-        <v>10.07</v>
+        <v>12.14</v>
       </c>
       <c r="D337">
-        <v>2027.62</v>
+        <v>2040.59</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5106,13 +5106,13 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>18.72</v>
+        <v>14.13</v>
       </c>
       <c r="C338">
-        <v>9.57</v>
+        <v>12.19</v>
       </c>
       <c r="D338">
-        <v>2013.3</v>
+        <v>2039.21</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5120,13 +5120,13 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>17.83</v>
+        <v>14.23</v>
       </c>
       <c r="C339">
-        <v>9.31</v>
+        <v>12.52</v>
       </c>
       <c r="D339">
-        <v>2009.56</v>
+        <v>2038.31</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5134,13 +5134,13 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>17.94</v>
+        <v>14.32</v>
       </c>
       <c r="C340">
-        <v>9.59</v>
+        <v>12.79</v>
       </c>
       <c r="D340">
-        <v>2026.84</v>
+        <v>2024.83</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5148,13 +5148,13 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>18.05</v>
+        <v>14.17</v>
       </c>
       <c r="C341">
-        <v>9.5</v>
+        <v>12.86</v>
       </c>
       <c r="D341">
-        <v>2023.35</v>
+        <v>2040.88</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5162,13 +5162,13 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>18.31</v>
+        <v>13.9</v>
       </c>
       <c r="C342">
-        <v>9.41</v>
+        <v>12.57</v>
       </c>
       <c r="D342">
-        <v>2023.7</v>
+        <v>2029.96</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5176,13 +5176,13 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>17.83</v>
+        <v>13.84</v>
       </c>
       <c r="C343">
-        <v>9.18</v>
+        <v>12.45</v>
       </c>
       <c r="D343">
-        <v>2004.95</v>
+        <v>2030.5</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5190,13 +5190,13 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>17.96</v>
+        <v>14.75</v>
       </c>
       <c r="C344">
-        <v>9.09</v>
+        <v>12.46</v>
       </c>
       <c r="D344">
-        <v>1991.25</v>
+        <v>2052.53</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5204,13 +5204,13 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>18.25</v>
+        <v>14.56</v>
       </c>
       <c r="C345">
-        <v>9.43</v>
+        <v>12.44</v>
       </c>
       <c r="D345">
-        <v>2008.31</v>
+        <v>2054.95</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5218,13 +5218,13 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>18.77</v>
+        <v>14.52</v>
       </c>
       <c r="C346">
-        <v>9.69</v>
+        <v>12.47</v>
       </c>
       <c r="D346">
-        <v>2051.75</v>
+        <v>2051.71</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5232,13 +5232,13 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>18.99</v>
+        <v>14.87</v>
       </c>
       <c r="C347">
-        <v>9.66</v>
+        <v>12.79</v>
       </c>
       <c r="D347">
-        <v>2042.18</v>
+        <v>2070.72</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5246,13 +5246,13 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>18.85</v>
+        <v>14.77</v>
       </c>
       <c r="C348">
-        <v>9.710000000000001</v>
+        <v>12.77</v>
       </c>
       <c r="D348">
-        <v>2054.39</v>
+        <v>2085.98</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5260,13 +5260,13 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>19.38</v>
+        <v>14.47</v>
       </c>
       <c r="C349">
-        <v>9.460000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="D349">
-        <v>2033.3</v>
+        <v>2066.7</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5274,13 +5274,13 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>19.1</v>
+        <v>14.53</v>
       </c>
       <c r="C350">
-        <v>9.630000000000001</v>
+        <v>12.41</v>
       </c>
       <c r="D350">
-        <v>2038.51</v>
+        <v>2055.52</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5288,13 +5288,13 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>19.13</v>
+        <v>14.17</v>
       </c>
       <c r="C351">
-        <v>9.470000000000001</v>
+        <v>11.62</v>
       </c>
       <c r="D351">
-        <v>2049.91</v>
+        <v>2023.73</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5302,13 +5302,13 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>19.37</v>
+        <v>14.15</v>
       </c>
       <c r="C352">
-        <v>9.31</v>
+        <v>11.7</v>
       </c>
       <c r="D352">
-        <v>2033.08</v>
+        <v>2026.67</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5316,13 +5316,13 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>19.8</v>
+        <v>14.43</v>
       </c>
       <c r="C353">
-        <v>9.369999999999999</v>
+        <v>11.86</v>
       </c>
       <c r="D353">
-        <v>2044.5</v>
+        <v>2024.36</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5330,13 +5330,13 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>19.88</v>
+        <v>14.52</v>
       </c>
       <c r="C354">
-        <v>9.65</v>
+        <v>11.95</v>
       </c>
       <c r="D354">
-        <v>2086.07</v>
+        <v>2033.93</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5344,13 +5344,13 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>20.12</v>
+        <v>14.69</v>
       </c>
       <c r="C355">
-        <v>10.62</v>
+        <v>11.86</v>
       </c>
       <c r="D355">
-        <v>2103.67</v>
+        <v>2025.5</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5358,13 +5358,13 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>19.97</v>
+        <v>14.68</v>
       </c>
       <c r="C356">
-        <v>10.9</v>
+        <v>12</v>
       </c>
       <c r="D356">
-        <v>2109.96</v>
+        <v>2038.68</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5372,13 +5372,13 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>19.62</v>
+        <v>14.89</v>
       </c>
       <c r="C357">
-        <v>10.58</v>
+        <v>12.23</v>
       </c>
       <c r="D357">
-        <v>2098.4</v>
+        <v>2036.51</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5386,13 +5386,13 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>19.61</v>
+        <v>15.08</v>
       </c>
       <c r="C358">
-        <v>10.76</v>
+        <v>12.33</v>
       </c>
       <c r="D358">
-        <v>2115.85</v>
+        <v>2048.33</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5400,13 +5400,13 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>19.9</v>
+        <v>15.04</v>
       </c>
       <c r="C359">
-        <v>10.95</v>
+        <v>12.2</v>
       </c>
       <c r="D359">
-        <v>2135.42</v>
+        <v>2050.38</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5414,13 +5414,13 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>19.56</v>
+        <v>14.78</v>
       </c>
       <c r="C360">
-        <v>10.89</v>
+        <v>12.16</v>
       </c>
       <c r="D360">
-        <v>2119.07</v>
+        <v>2059.42</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5428,13 +5428,13 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>20.45</v>
+        <v>15.02</v>
       </c>
       <c r="C361">
-        <v>11.58</v>
+        <v>12.12</v>
       </c>
       <c r="D361">
-        <v>2142.55</v>
+        <v>2063.23</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5442,13 +5442,13 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>20.4</v>
+        <v>15.2</v>
       </c>
       <c r="C362">
-        <v>12.74</v>
+        <v>12.25</v>
       </c>
       <c r="D362">
-        <v>2138.78</v>
+        <v>2059.38</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5456,13 +5456,13 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>19.77</v>
+        <v>15.38</v>
       </c>
       <c r="C363">
-        <v>12.21</v>
+        <v>12.51</v>
       </c>
       <c r="D363">
-        <v>2113.69</v>
+        <v>2059.93</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5470,13 +5470,13 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>20.03</v>
+        <v>15.77</v>
       </c>
       <c r="C364">
-        <v>13.12</v>
+        <v>12.82</v>
       </c>
       <c r="D364">
-        <v>2076.69</v>
+        <v>2064.02</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5484,13 +5484,13 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>19.46</v>
+        <v>15.48</v>
       </c>
       <c r="C365">
-        <v>11.81</v>
+        <v>12.73</v>
       </c>
       <c r="D365">
-        <v>2034.22</v>
+        <v>2038.61</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5498,13 +5498,13 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>19.37</v>
+        <v>15.55</v>
       </c>
       <c r="C366">
-        <v>12.39</v>
+        <v>13.09</v>
       </c>
       <c r="D366">
-        <v>2041.25</v>
+        <v>2038.34</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5512,13 +5512,13 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>18.91</v>
+        <v>15.48</v>
       </c>
       <c r="C367">
-        <v>12.5</v>
+        <v>12.94</v>
       </c>
       <c r="D367">
-        <v>2047.35</v>
+        <v>2046.96</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5526,13 +5526,13 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>19.27</v>
+        <v>15.6</v>
       </c>
       <c r="C368">
-        <v>12.09</v>
+        <v>12.9</v>
       </c>
       <c r="D368">
-        <v>2056.3</v>
+        <v>2066.65</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5540,13 +5540,13 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>19.01</v>
+        <v>15.66</v>
       </c>
       <c r="C369">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D369">
-        <v>2075.24</v>
+        <v>2070.36</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5554,13 +5554,13 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>19.21</v>
+        <v>15.93</v>
       </c>
       <c r="C370">
-        <v>14.63</v>
+        <v>13.45</v>
       </c>
       <c r="D370">
-        <v>2071.47</v>
+        <v>2067.28</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5568,13 +5568,13 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>18.96</v>
+        <v>15.75</v>
       </c>
       <c r="C371">
-        <v>14.34</v>
+        <v>13.64</v>
       </c>
       <c r="D371">
-        <v>2053.08</v>
+        <v>2055.59</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5582,13 +5582,13 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>18.61</v>
+        <v>15.36</v>
       </c>
       <c r="C372">
-        <v>14.06</v>
+        <v>13.1</v>
       </c>
       <c r="D372">
-        <v>2059.58</v>
+        <v>2059.07</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5596,13 +5596,13 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>18.42</v>
+        <v>15.4</v>
       </c>
       <c r="C373">
-        <v>13.67</v>
+        <v>12.84</v>
       </c>
       <c r="D373">
-        <v>2057.91</v>
+        <v>2054.48</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5610,13 +5610,13 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>17.64</v>
+        <v>15.57</v>
       </c>
       <c r="C374">
-        <v>12.72</v>
+        <v>13.1</v>
       </c>
       <c r="D374">
-        <v>1999.06</v>
+        <v>2075.48</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5624,13 +5624,13 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>17.73</v>
+        <v>15.12</v>
       </c>
       <c r="C375">
-        <v>12.55</v>
+        <v>13.16</v>
       </c>
       <c r="D375">
-        <v>2001.16</v>
+        <v>2078.49</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5638,13 +5638,13 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>17.4</v>
+        <v>15.34</v>
       </c>
       <c r="C376">
-        <v>12.17</v>
+        <v>13.38</v>
       </c>
       <c r="D376">
-        <v>1997.69</v>
+        <v>2105.06</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5652,13 +5652,13 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>17.52</v>
+        <v>15.06</v>
       </c>
       <c r="C377">
-        <v>12.14</v>
+        <v>13.89</v>
       </c>
       <c r="D377">
-        <v>2019.11</v>
+        <v>2126.61</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5666,13 +5666,13 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>17.34</v>
+        <v>15.32</v>
       </c>
       <c r="C378">
-        <v>12.04</v>
+        <v>13.95</v>
       </c>
       <c r="D378">
-        <v>2004.34</v>
+        <v>2177.95</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5680,13 +5680,13 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>17.71</v>
+        <v>15.82</v>
       </c>
       <c r="C379">
-        <v>12.33</v>
+        <v>13.84</v>
       </c>
       <c r="D379">
-        <v>2023.67</v>
+        <v>2183.19</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5694,13 +5694,13 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>17.83</v>
+        <v>15.95</v>
       </c>
       <c r="C380">
-        <v>12.32</v>
+        <v>14.61</v>
       </c>
       <c r="D380">
-        <v>2025.2</v>
+        <v>2181.24</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5708,13 +5708,13 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>18</v>
+        <v>16.05</v>
       </c>
       <c r="C381">
-        <v>12.07</v>
+        <v>14.35</v>
       </c>
       <c r="D381">
-        <v>2021.73</v>
+        <v>2201.56</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5722,13 +5722,13 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>17.5</v>
+        <v>15.87</v>
       </c>
       <c r="C382">
-        <v>13.22</v>
+        <v>13.86</v>
       </c>
       <c r="D382">
-        <v>1993.48</v>
+        <v>2185.3</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5736,13 +5736,13 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>17.64</v>
+        <v>16.1</v>
       </c>
       <c r="C383">
-        <v>12.73</v>
+        <v>14.02</v>
       </c>
       <c r="D383">
-        <v>2047.62</v>
+        <v>2223.33</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -5750,13 +5750,13 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>17.99</v>
+        <v>16.05</v>
       </c>
       <c r="C384">
-        <v>12.88</v>
+        <v>13.9</v>
       </c>
       <c r="D384">
-        <v>2066.28</v>
+        <v>2219.95</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -5764,13 +5764,13 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>17.98</v>
+        <v>15.87</v>
       </c>
       <c r="C385">
-        <v>12.55</v>
+        <v>13.77</v>
       </c>
       <c r="D385">
-        <v>2067.31</v>
+        <v>2217.47</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -5778,13 +5778,13 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>17.77</v>
+        <v>15.76</v>
       </c>
       <c r="C386">
-        <v>12.24</v>
+        <v>13.88</v>
       </c>
       <c r="D386">
-        <v>2063.67</v>
+        <v>2187.67</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -5792,13 +5792,13 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>17.36</v>
+        <v>15.85</v>
       </c>
       <c r="C387">
-        <v>12.24</v>
+        <v>14.02</v>
       </c>
       <c r="D387">
-        <v>2046.59</v>
+        <v>2194.43</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -5806,13 +5806,13 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>17.59</v>
+        <v>16.01</v>
       </c>
       <c r="C388">
-        <v>11.35</v>
+        <v>13.99</v>
       </c>
       <c r="D388">
-        <v>2041.71</v>
+        <v>2224.65</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -5820,13 +5820,13 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>18.02</v>
+        <v>15.85</v>
       </c>
       <c r="C389">
-        <v>11.35</v>
+        <v>13.91</v>
       </c>
       <c r="D389">
-        <v>2033.31</v>
+        <v>2221.59</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5834,13 +5834,13 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>18.27</v>
+        <v>15.82</v>
       </c>
       <c r="C390">
-        <v>11.48</v>
+        <v>14.26</v>
       </c>
       <c r="D390">
-        <v>2047.46</v>
+        <v>2222.88</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5848,13 +5848,13 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>18.09</v>
+        <v>15.66</v>
       </c>
       <c r="C391">
-        <v>11.5</v>
+        <v>14.38</v>
       </c>
       <c r="D391">
-        <v>2058.99</v>
+        <v>2206.47</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -5862,13 +5862,13 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>17.81</v>
+        <v>15.69</v>
       </c>
       <c r="C392">
-        <v>11.72</v>
+        <v>14.63</v>
       </c>
       <c r="D392">
-        <v>2043.7</v>
+        <v>2226.73</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -5876,13 +5876,13 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>17.71</v>
+        <v>15.84</v>
       </c>
       <c r="C393">
-        <v>11.53</v>
+        <v>14.8</v>
       </c>
       <c r="D393">
-        <v>2058.83</v>
+        <v>2239.47</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -5890,13 +5890,13 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>17.64</v>
+        <v>16.65</v>
       </c>
       <c r="C394">
-        <v>11.77</v>
+        <v>14.88</v>
       </c>
       <c r="D394">
-        <v>2098.28</v>
+        <v>2245.33</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -5904,13 +5904,13 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>17.8</v>
+        <v>16.25</v>
       </c>
       <c r="C395">
-        <v>11.84</v>
+        <v>14.38</v>
       </c>
       <c r="D395">
-        <v>2105.24</v>
+        <v>2240.21</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -5918,13 +5918,13 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>17.92</v>
+        <v>16.17</v>
       </c>
       <c r="C396">
-        <v>11.8</v>
+        <v>14.2</v>
       </c>
       <c r="D396">
-        <v>2134.3</v>
+        <v>2230.46</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -5932,13 +5932,13 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>17.68</v>
+        <v>16.17</v>
       </c>
       <c r="C397">
-        <v>12.04</v>
+        <v>14.3</v>
       </c>
       <c r="D397">
-        <v>2130.54</v>
+        <v>2240.81</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -5946,13 +5946,13 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>17.68</v>
+        <v>15.91</v>
       </c>
       <c r="C398">
-        <v>12.75</v>
+        <v>14.09</v>
       </c>
       <c r="D398">
-        <v>2131.54</v>
+        <v>2229.27</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -5960,13 +5960,13 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>17.64</v>
+        <v>15.51</v>
       </c>
       <c r="C399">
-        <v>12.48</v>
+        <v>13.36</v>
       </c>
       <c r="D399">
-        <v>2101.6</v>
+        <v>2207.11</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -5974,13 +5974,13 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>18.01</v>
+        <v>15.54</v>
       </c>
       <c r="C400">
-        <v>12.6</v>
+        <v>13.43</v>
       </c>
       <c r="D400">
-        <v>2105.12</v>
+        <v>2209.47</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -5988,13 +5988,13 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>17.94</v>
+        <v>15.57</v>
       </c>
       <c r="C401">
-        <v>12.72</v>
+        <v>13.71</v>
       </c>
       <c r="D401">
-        <v>2098.89</v>
+        <v>2195.82</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -6002,13 +6002,13 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>18.46</v>
+        <v>15.75</v>
       </c>
       <c r="C402">
-        <v>12.49</v>
+        <v>14.03</v>
       </c>
       <c r="D402">
-        <v>2097.75</v>
+        <v>2217.2</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -6016,13 +6016,13 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>18.3</v>
+        <v>15.92</v>
       </c>
       <c r="C403">
-        <v>11.77</v>
+        <v>14.37</v>
       </c>
       <c r="D403">
-        <v>2065.83</v>
+        <v>2235.51</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -6030,13 +6030,13 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>18.72</v>
+        <v>16.08</v>
       </c>
       <c r="C404">
-        <v>11.49</v>
+        <v>14.33</v>
       </c>
       <c r="D404">
-        <v>2072.83</v>
+        <v>2266.05</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -6044,13 +6044,13 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>18.92</v>
+        <v>16.77</v>
       </c>
       <c r="C405">
-        <v>11.55</v>
+        <v>14.31</v>
       </c>
       <c r="D405">
-        <v>2066.36</v>
+        <v>2288.63</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6058,13 +6058,13 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>18.86</v>
+        <v>16.46</v>
       </c>
       <c r="C406">
-        <v>11.67</v>
+        <v>14.39</v>
       </c>
       <c r="D406">
-        <v>2057.03</v>
+        <v>2306.86</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -6072,13 +6072,13 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>17.61</v>
+        <v>16.18</v>
       </c>
       <c r="C407">
-        <v>11.7</v>
+        <v>14.24</v>
       </c>
       <c r="D407">
-        <v>2036.52</v>
+        <v>2326.43</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -6086,13 +6086,13 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>15.85</v>
+        <v>16.25</v>
       </c>
       <c r="C408">
-        <v>12.19</v>
+        <v>14.62</v>
       </c>
       <c r="D408">
-        <v>2003.49</v>
+        <v>2326.53</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -6100,13 +6100,13 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>15.72</v>
+        <v>16.49</v>
       </c>
       <c r="C409">
-        <v>11.8</v>
+        <v>14.96</v>
       </c>
       <c r="D409">
-        <v>2020.34</v>
+        <v>2318.3</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6114,13 +6114,13 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>15.9</v>
+        <v>16.28</v>
       </c>
       <c r="C410">
-        <v>11.53</v>
+        <v>14.96</v>
       </c>
       <c r="D410">
-        <v>2026.36</v>
+        <v>2311.68</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6128,13 +6128,13 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>14.77</v>
+        <v>16.42</v>
       </c>
       <c r="C411">
-        <v>11.67</v>
+        <v>15.16</v>
       </c>
       <c r="D411">
-        <v>2027.35</v>
+        <v>2331.95</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6142,13 +6142,13 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>14.85</v>
+        <v>16.49</v>
       </c>
       <c r="C412">
-        <v>11.75</v>
+        <v>15.1</v>
       </c>
       <c r="D412">
-        <v>2028.04</v>
+        <v>2339.14</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6156,13 +6156,13 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>14.19</v>
+        <v>15.9</v>
       </c>
       <c r="C413">
-        <v>11.36</v>
+        <v>14.15</v>
       </c>
       <c r="D413">
-        <v>2010.08</v>
+        <v>2296.55</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6170,13 +6170,13 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>14.33</v>
+        <v>15.89</v>
       </c>
       <c r="C414">
-        <v>11.34</v>
+        <v>14.28</v>
       </c>
       <c r="D414">
-        <v>2015.27</v>
+        <v>2307.89</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -6184,13 +6184,13 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>13.57</v>
+        <v>15.93</v>
       </c>
       <c r="C415">
-        <v>11.07</v>
+        <v>14.41</v>
       </c>
       <c r="D415">
-        <v>2011.14</v>
+        <v>2315.93</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -6198,13 +6198,13 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>13.79</v>
+        <v>16.18</v>
       </c>
       <c r="C416">
-        <v>11.3</v>
+        <v>14.63</v>
       </c>
       <c r="D416">
-        <v>2052.87</v>
+        <v>2329.45</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -6212,13 +6212,13 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>13.96</v>
+        <v>15.79</v>
       </c>
       <c r="C417">
-        <v>11.94</v>
+        <v>15</v>
       </c>
       <c r="D417">
-        <v>2050.73</v>
+        <v>2289.87</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -6226,13 +6226,13 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>13.85</v>
+        <v>15.62</v>
       </c>
       <c r="C418">
-        <v>11.58</v>
+        <v>15.19</v>
       </c>
       <c r="D418">
-        <v>2047.91</v>
+        <v>2309.72</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -6240,13 +6240,13 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>13.24</v>
+        <v>15.79</v>
       </c>
       <c r="C419">
-        <v>11.48</v>
+        <v>15.1</v>
       </c>
       <c r="D419">
-        <v>2024.97</v>
+        <v>2343.57</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -6254,13 +6254,13 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>13.38</v>
+        <v>15.72</v>
       </c>
       <c r="C420">
-        <v>11.46</v>
+        <v>14.67</v>
       </c>
       <c r="D420">
-        <v>2026.5</v>
+        <v>2345.1</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -6268,13 +6268,13 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>13.11</v>
+        <v>16.27</v>
       </c>
       <c r="C421">
-        <v>11.34</v>
+        <v>14.84</v>
       </c>
       <c r="D421">
-        <v>2005.18</v>
+        <v>2347.72</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -6282,13 +6282,13 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>13.2</v>
+        <v>16.48</v>
       </c>
       <c r="C422">
-        <v>11.52</v>
+        <v>14.82</v>
       </c>
       <c r="D422">
-        <v>2008.12</v>
+        <v>2357.71</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -6296,13 +6296,13 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>13.62</v>
+        <v>16.26</v>
       </c>
       <c r="C423">
-        <v>11.57</v>
+        <v>14.98</v>
       </c>
       <c r="D423">
-        <v>2024.95</v>
+        <v>2363.87</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -6310,13 +6310,13 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>13.52</v>
+        <v>17.05</v>
       </c>
       <c r="C424">
-        <v>11.99</v>
+        <v>15.14</v>
       </c>
       <c r="D424">
-        <v>2021.29</v>
+        <v>2382.79</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -6324,13 +6324,13 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>13.74</v>
+        <v>17.18</v>
       </c>
       <c r="C425">
-        <v>12.01</v>
+        <v>15.16</v>
       </c>
       <c r="D425">
-        <v>2034.57</v>
+        <v>2389.37</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -6338,13 +6338,13 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>13.79</v>
+        <v>17.69</v>
       </c>
       <c r="C426">
-        <v>12.12</v>
+        <v>14.81</v>
       </c>
       <c r="D426">
-        <v>2041.48</v>
+        <v>2374.54</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -6352,13 +6352,13 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>14.22</v>
+        <v>17.62</v>
       </c>
       <c r="C427">
-        <v>12.12</v>
+        <v>14.74</v>
       </c>
       <c r="D427">
-        <v>2034.56</v>
+        <v>2366.01</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -6366,13 +6366,13 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>14.33</v>
+        <v>17.45</v>
       </c>
       <c r="C428">
-        <v>12.5</v>
+        <v>14.89</v>
       </c>
       <c r="D428">
-        <v>2050.23</v>
+        <v>2359.48</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -6380,13 +6380,13 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>14.15</v>
+        <v>17.98</v>
       </c>
       <c r="C429">
-        <v>12.14</v>
+        <v>15.14</v>
       </c>
       <c r="D429">
-        <v>2040.59</v>
+        <v>2373.67</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6394,13 +6394,13 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>14.13</v>
+        <v>17.45</v>
       </c>
       <c r="C430">
-        <v>12.19</v>
+        <v>15.22</v>
       </c>
       <c r="D430">
-        <v>2039.21</v>
+        <v>2356.5</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -6408,13 +6408,13 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>14.23</v>
+        <v>17.59</v>
       </c>
       <c r="C431">
-        <v>12.52</v>
+        <v>14.74</v>
       </c>
       <c r="D431">
-        <v>2038.31</v>
+        <v>2341.18</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -6422,13 +6422,13 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>14.32</v>
+        <v>17.36</v>
       </c>
       <c r="C432">
-        <v>12.79</v>
+        <v>14.86</v>
       </c>
       <c r="D432">
-        <v>2024.83</v>
+        <v>2356.73</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -6436,13 +6436,13 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>14.17</v>
+        <v>17.14</v>
       </c>
       <c r="C433">
-        <v>12.86</v>
+        <v>15.65</v>
       </c>
       <c r="D433">
-        <v>2040.88</v>
+        <v>2339.66</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -6450,13 +6450,13 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>13.9</v>
+        <v>16.95</v>
       </c>
       <c r="C434">
-        <v>12.57</v>
+        <v>15.24</v>
       </c>
       <c r="D434">
-        <v>2029.96</v>
+        <v>2326.55</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -6464,13 +6464,13 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>13.84</v>
+        <v>17.48</v>
       </c>
       <c r="C435">
-        <v>12.45</v>
+        <v>14.6</v>
       </c>
       <c r="D435">
-        <v>2030.5</v>
+        <v>2302.42</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -6478,13 +6478,13 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>14.75</v>
+        <v>16.48</v>
       </c>
       <c r="C436">
-        <v>12.46</v>
+        <v>14.65</v>
       </c>
       <c r="D436">
-        <v>2052.53</v>
+        <v>2302.28</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -6492,13 +6492,13 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>14.56</v>
+        <v>16.28</v>
       </c>
       <c r="C437">
-        <v>12.44</v>
+        <v>13.8</v>
       </c>
       <c r="D437">
-        <v>2054.95</v>
+        <v>2290.44</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -6506,13 +6506,13 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>14.52</v>
+        <v>16.64</v>
       </c>
       <c r="C438">
-        <v>12.47</v>
+        <v>14.64</v>
       </c>
       <c r="D438">
-        <v>2051.71</v>
+        <v>2337.87</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -6520,13 +6520,13 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>14.87</v>
+        <v>17.01</v>
       </c>
       <c r="C439">
-        <v>12.79</v>
+        <v>14.94</v>
       </c>
       <c r="D439">
-        <v>2070.72</v>
+        <v>2373.03</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6534,13 +6534,13 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>14.77</v>
+        <v>16.41</v>
       </c>
       <c r="C440">
-        <v>12.77</v>
+        <v>14.75</v>
       </c>
       <c r="D440">
-        <v>2085.98</v>
+        <v>2391.08</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -6548,13 +6548,13 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>14.47</v>
+        <v>16.63</v>
       </c>
       <c r="C441">
-        <v>12.41</v>
+        <v>14.34</v>
       </c>
       <c r="D441">
-        <v>2066.7</v>
+        <v>2420.18</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -6562,13 +6562,13 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>14.53</v>
+        <v>16.55</v>
       </c>
       <c r="C442">
-        <v>12.41</v>
+        <v>14.68</v>
       </c>
       <c r="D442">
-        <v>2055.52</v>
+        <v>2430.03</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6576,13 +6576,13 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>14.17</v>
+        <v>16.96</v>
       </c>
       <c r="C443">
-        <v>11.62</v>
+        <v>14.7</v>
       </c>
       <c r="D443">
-        <v>2023.73</v>
+        <v>2430.68</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6590,13 +6590,13 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>14.15</v>
+        <v>16.86</v>
       </c>
       <c r="C444">
-        <v>11.7</v>
+        <v>14.49</v>
       </c>
       <c r="D444">
-        <v>2026.67</v>
+        <v>2419.25</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -6604,13 +6604,13 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>14.43</v>
+        <v>16.84</v>
       </c>
       <c r="C445">
-        <v>11.86</v>
+        <v>14.69</v>
       </c>
       <c r="D445">
-        <v>2024.36</v>
+        <v>2425.86</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -6618,13 +6618,13 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>14.52</v>
+        <v>16.53</v>
       </c>
       <c r="C446">
-        <v>11.95</v>
+        <v>14.13</v>
       </c>
       <c r="D446">
-        <v>2033.93</v>
+        <v>2418.17</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -6632,13 +6632,13 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>14.69</v>
+        <v>16.2</v>
       </c>
       <c r="C447">
-        <v>11.86</v>
+        <v>14.41</v>
       </c>
       <c r="D447">
-        <v>2025.5</v>
+        <v>2473.67</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -6646,13 +6646,13 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>14.68</v>
+        <v>15.4</v>
       </c>
       <c r="C448">
-        <v>12</v>
+        <v>14.74</v>
       </c>
       <c r="D448">
-        <v>2038.68</v>
+        <v>2469.67</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -6660,13 +6660,13 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>14.89</v>
+        <v>15.54</v>
       </c>
       <c r="C449">
-        <v>12.23</v>
+        <v>15.28</v>
       </c>
       <c r="D449">
-        <v>2036.51</v>
+        <v>2494.48</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -6674,13 +6674,13 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>15.08</v>
+        <v>14.78</v>
       </c>
       <c r="C450">
-        <v>12.33</v>
+        <v>14.87</v>
       </c>
       <c r="D450">
-        <v>2048.33</v>
+        <v>2485.61</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -6688,13 +6688,13 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>15.04</v>
+        <v>14.81</v>
       </c>
       <c r="C451">
-        <v>12.2</v>
+        <v>14.27</v>
       </c>
       <c r="D451">
-        <v>2050.38</v>
+        <v>2478.82</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -6702,13 +6702,13 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>14.78</v>
+        <v>15.02</v>
       </c>
       <c r="C452">
-        <v>12.16</v>
+        <v>14.68</v>
       </c>
       <c r="D452">
-        <v>2059.42</v>
+        <v>2474.01</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -6716,13 +6716,13 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>15.02</v>
+        <v>15.05</v>
       </c>
       <c r="C453">
-        <v>12.12</v>
+        <v>14.8</v>
       </c>
       <c r="D453">
-        <v>2063.23</v>
+        <v>2456.37</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6730,13 +6730,13 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>15.2</v>
+        <v>15.01</v>
       </c>
       <c r="C454">
-        <v>12.25</v>
+        <v>15</v>
       </c>
       <c r="D454">
-        <v>2059.38</v>
+        <v>2450.99</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -6744,13 +6744,13 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>15.38</v>
+        <v>14.97</v>
       </c>
       <c r="C455">
-        <v>12.51</v>
+        <v>15.21</v>
       </c>
       <c r="D455">
-        <v>2059.93</v>
+        <v>2452.66</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -6758,13 +6758,13 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>15.77</v>
+        <v>15.19</v>
       </c>
       <c r="C456">
-        <v>12.82</v>
+        <v>15.23</v>
       </c>
       <c r="D456">
-        <v>2064.02</v>
+        <v>2486.79</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -6772,13 +6772,13 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>15.48</v>
+        <v>15.29</v>
       </c>
       <c r="C457">
-        <v>12.73</v>
+        <v>15.39</v>
       </c>
       <c r="D457">
-        <v>2038.61</v>
+        <v>2532.88</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -6786,13 +6786,13 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>15.55</v>
+        <v>15.38</v>
       </c>
       <c r="C458">
-        <v>13.09</v>
+        <v>15.52</v>
       </c>
       <c r="D458">
-        <v>2038.34</v>
+        <v>2567.6</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -6800,13 +6800,13 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>15.48</v>
+        <v>15.49</v>
       </c>
       <c r="C459">
-        <v>12.94</v>
+        <v>17.07</v>
       </c>
       <c r="D459">
-        <v>2046.96</v>
+        <v>2604.34</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -6814,13 +6814,13 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>15.6</v>
+        <v>15.41</v>
       </c>
       <c r="C460">
-        <v>12.9</v>
+        <v>17.23</v>
       </c>
       <c r="D460">
-        <v>2066.65</v>
+        <v>2630.49</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -6828,13 +6828,13 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>15.66</v>
+        <v>14.24</v>
       </c>
       <c r="C461">
-        <v>13.1</v>
+        <v>16.89</v>
       </c>
       <c r="D461">
-        <v>2070.36</v>
+        <v>2682.83</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -6842,13 +6842,13 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>15.93</v>
+        <v>13.88</v>
       </c>
       <c r="C462">
-        <v>13.45</v>
+        <v>17.1</v>
       </c>
       <c r="D462">
-        <v>2067.28</v>
+        <v>2680.16</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -6856,13 +6856,13 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>15.75</v>
+        <v>14.15</v>
       </c>
       <c r="C463">
-        <v>13.64</v>
+        <v>17.29</v>
       </c>
       <c r="D463">
-        <v>2055.59</v>
+        <v>2763.54</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -6870,13 +6870,13 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>15.36</v>
+        <v>14.27</v>
       </c>
       <c r="C464">
-        <v>13.1</v>
+        <v>17.24</v>
       </c>
       <c r="D464">
-        <v>2059.07</v>
+        <v>2779.52</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -6884,13 +6884,13 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>15.4</v>
+        <v>14.65</v>
       </c>
       <c r="C465">
-        <v>12.84</v>
+        <v>17.96</v>
       </c>
       <c r="D465">
-        <v>2054.48</v>
+        <v>2899.46</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -6898,13 +6898,13 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>15.57</v>
+        <v>14.14</v>
       </c>
       <c r="C466">
-        <v>13.1</v>
+        <v>16.69</v>
       </c>
       <c r="D466">
-        <v>2075.48</v>
+        <v>2937.65</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -6912,13 +6912,13 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>15.12</v>
+        <v>14.17</v>
       </c>
       <c r="C467">
-        <v>13.16</v>
+        <v>16.94</v>
       </c>
       <c r="D467">
-        <v>2078.49</v>
+        <v>3020.26</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -6926,13 +6926,13 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>15.34</v>
+        <v>13.53</v>
       </c>
       <c r="C468">
-        <v>13.38</v>
+        <v>16.3</v>
       </c>
       <c r="D468">
-        <v>2105.06</v>
+        <v>2856.27</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -6940,13 +6940,13 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>15.06</v>
+        <v>13.92</v>
       </c>
       <c r="C469">
-        <v>13.89</v>
+        <v>16.8</v>
       </c>
       <c r="D469">
-        <v>2126.61</v>
+        <v>2940.01</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -6954,13 +6954,13 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>15.32</v>
+        <v>14.11</v>
       </c>
       <c r="C470">
-        <v>13.95</v>
+        <v>16.89</v>
       </c>
       <c r="D470">
-        <v>2177.95</v>
+        <v>2925.74</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -6968,13 +6968,13 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>15.82</v>
+        <v>14.2</v>
       </c>
       <c r="C471">
-        <v>13.84</v>
+        <v>17.01</v>
       </c>
       <c r="D471">
-        <v>2183.19</v>
+        <v>2938.17</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -6982,13 +6982,13 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>15.95</v>
+        <v>14.38</v>
       </c>
       <c r="C472">
-        <v>14.61</v>
+        <v>17.79</v>
       </c>
       <c r="D472">
-        <v>2181.24</v>
+        <v>2953.42</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -6996,13 +6996,13 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>16.05</v>
+        <v>14.23</v>
       </c>
       <c r="C473">
-        <v>14.35</v>
+        <v>18.97</v>
       </c>
       <c r="D473">
-        <v>2201.56</v>
+        <v>3021.52</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -7010,13 +7010,13 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>15.87</v>
+        <v>14.01</v>
       </c>
       <c r="C474">
-        <v>13.86</v>
+        <v>20.81</v>
       </c>
       <c r="D474">
-        <v>2185.3</v>
+        <v>3061.02</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -7024,13 +7024,13 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>16.1</v>
+        <v>14.07</v>
       </c>
       <c r="C475">
-        <v>14.02</v>
+        <v>21.76</v>
       </c>
       <c r="D475">
-        <v>2223.33</v>
+        <v>3057.52</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -7038,13 +7038,13 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>16.05</v>
+        <v>18.17</v>
       </c>
       <c r="C476">
-        <v>13.9</v>
+        <v>23.94</v>
       </c>
       <c r="D476">
-        <v>2219.95</v>
+        <v>4287.3</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -7052,13 +7052,13 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>15.87</v>
+        <v>18.58</v>
       </c>
       <c r="C477">
-        <v>13.77</v>
+        <v>26.33</v>
       </c>
       <c r="D477">
-        <v>2217.47</v>
+        <v>4217.08</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7066,13 +7066,13 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>15.76</v>
+        <v>19.42</v>
       </c>
       <c r="C478">
-        <v>13.88</v>
+        <v>28.96</v>
       </c>
       <c r="D478">
-        <v>2187.67</v>
+        <v>4293.62</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -7080,13 +7080,13 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>15.85</v>
+        <v>19.36</v>
       </c>
       <c r="C479">
-        <v>14.02</v>
+        <v>31.86</v>
       </c>
       <c r="D479">
-        <v>2194.43</v>
+        <v>4398.49</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -7094,13 +7094,13 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>16.01</v>
+        <v>19.79</v>
       </c>
       <c r="C480">
-        <v>13.99</v>
+        <v>35.05</v>
       </c>
       <c r="D480">
-        <v>2224.65</v>
+        <v>4414.51</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -7108,13 +7108,13 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>15.85</v>
+        <v>21.19</v>
       </c>
       <c r="C481">
-        <v>13.91</v>
+        <v>38.56</v>
       </c>
       <c r="D481">
-        <v>2221.59</v>
+        <v>4393.69</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -7122,13 +7122,13 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>15.82</v>
+        <v>22.87</v>
       </c>
       <c r="C482">
-        <v>14.26</v>
+        <v>38.07</v>
       </c>
       <c r="D482">
-        <v>2222.88</v>
+        <v>4527.4</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -7136,13 +7136,13 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>15.66</v>
+        <v>23.21</v>
       </c>
       <c r="C483">
-        <v>14.38</v>
+        <v>34.52</v>
       </c>
       <c r="D483">
-        <v>2206.47</v>
+        <v>4476.21</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -7150,13 +7150,13 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>15.69</v>
+        <v>22.72</v>
       </c>
       <c r="C484">
-        <v>14.63</v>
+        <v>36.07</v>
       </c>
       <c r="D484">
-        <v>2226.73</v>
+        <v>4476.62</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -7164,13 +7164,13 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>15.84</v>
+        <v>21.74</v>
       </c>
       <c r="C485">
-        <v>14.8</v>
+        <v>34.25</v>
       </c>
       <c r="D485">
-        <v>2239.47</v>
+        <v>4441.65</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -7178,13 +7178,13 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>16.65</v>
+        <v>22.08</v>
       </c>
       <c r="C486">
-        <v>14.88</v>
+        <v>34.29</v>
       </c>
       <c r="D486">
-        <v>2245.33</v>
+        <v>4480.46</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -7192,13 +7192,13 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>16.25</v>
+        <v>21.6</v>
       </c>
       <c r="C487">
-        <v>14.38</v>
+        <v>31.71</v>
       </c>
       <c r="D487">
-        <v>2240.21</v>
+        <v>4298.71</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -7206,13 +7206,13 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>16.17</v>
+        <v>20.61</v>
       </c>
       <c r="C488">
-        <v>14.2</v>
+        <v>31.91</v>
       </c>
       <c r="D488">
-        <v>2230.46</v>
+        <v>4229.27</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -7220,13 +7220,13 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>16.17</v>
+        <v>20.81</v>
       </c>
       <c r="C489">
-        <v>14.3</v>
+        <v>32.58</v>
       </c>
       <c r="D489">
-        <v>2240.81</v>
+        <v>4112.21</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -7234,13 +7234,13 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>15.91</v>
+        <v>21.27</v>
       </c>
       <c r="C490">
-        <v>14.09</v>
+        <v>33.68</v>
       </c>
       <c r="D490">
-        <v>2229.27</v>
+        <v>4205.92</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -7248,13 +7248,13 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>15.51</v>
+        <v>21.72</v>
       </c>
       <c r="C491">
-        <v>13.36</v>
+        <v>35.88</v>
       </c>
       <c r="D491">
-        <v>2207.11</v>
+        <v>4333.58</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -7262,13 +7262,13 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>15.54</v>
+        <v>21.92</v>
       </c>
       <c r="C492">
-        <v>13.43</v>
+        <v>39.47</v>
       </c>
       <c r="D492">
-        <v>2209.47</v>
+        <v>4401.22</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -7276,13 +7276,13 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>15.57</v>
+        <v>22.9</v>
       </c>
       <c r="C493">
-        <v>13.71</v>
+        <v>42.06</v>
       </c>
       <c r="D493">
-        <v>2195.82</v>
+        <v>4375.76</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -7290,13 +7290,13 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>15.75</v>
+        <v>22.36</v>
       </c>
       <c r="C494">
-        <v>14.03</v>
+        <v>40.37</v>
       </c>
       <c r="D494">
-        <v>2217.2</v>
+        <v>4378.31</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -7304,13 +7304,13 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>15.92</v>
+        <v>21.42</v>
       </c>
       <c r="C495">
-        <v>14.37</v>
+        <v>38.74</v>
       </c>
       <c r="D495">
-        <v>2235.51</v>
+        <v>4308.69</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -7318,13 +7318,13 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>16.08</v>
+        <v>21.53</v>
       </c>
       <c r="C496">
-        <v>14.33</v>
+        <v>38.83</v>
       </c>
       <c r="D496">
-        <v>2266.05</v>
+        <v>4283.49</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -7332,13 +7332,13 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>16.77</v>
+        <v>22.49</v>
       </c>
       <c r="C497">
-        <v>14.31</v>
+        <v>41.26</v>
       </c>
       <c r="D497">
-        <v>2288.63</v>
+        <v>4417.55</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -7346,13 +7346,13 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>16.46</v>
+        <v>22.39</v>
       </c>
       <c r="C498">
-        <v>14.39</v>
+        <v>42.53</v>
       </c>
       <c r="D498">
-        <v>2306.86</v>
+        <v>4446.29</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -7360,13 +7360,13 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>16.18</v>
+        <v>24.56</v>
       </c>
       <c r="C499">
-        <v>14.24</v>
+        <v>45.62</v>
       </c>
       <c r="D499">
-        <v>2326.43</v>
+        <v>4529.42</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -7374,13 +7374,13 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>16.25</v>
+        <v>24.18</v>
       </c>
       <c r="C500">
-        <v>14.62</v>
+        <v>44.33</v>
       </c>
       <c r="D500">
-        <v>2326.53</v>
+        <v>4657.6</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -7388,13 +7388,13 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>16.49</v>
+        <v>26.15</v>
       </c>
       <c r="C501">
-        <v>14.96</v>
+        <v>42.3</v>
       </c>
       <c r="D501">
-        <v>2318.3</v>
+        <v>4813.8</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -7402,13 +7402,13 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>16.28</v>
+        <v>26.46</v>
       </c>
       <c r="C502">
-        <v>14.96</v>
+        <v>43.43</v>
       </c>
       <c r="D502">
-        <v>2311.68</v>
+        <v>4910.9</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -7416,13 +7416,13 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>16.42</v>
+        <v>26.69</v>
       </c>
       <c r="C503">
-        <v>15.16</v>
+        <v>42.61</v>
       </c>
       <c r="D503">
-        <v>2331.95</v>
+        <v>4941.71</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -7430,13 +7430,13 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>16.49</v>
+        <v>24.07</v>
       </c>
       <c r="C504">
-        <v>15.1</v>
+        <v>40.09</v>
       </c>
       <c r="D504">
-        <v>2339.14</v>
+        <v>4620.27</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -7444,13 +7444,13 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>15.9</v>
+        <v>25.78</v>
       </c>
       <c r="C505">
-        <v>14.15</v>
+        <v>39.45</v>
       </c>
       <c r="D505">
-        <v>2296.55</v>
+        <v>4611.74</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -7458,1300 +7458,12 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>15.89</v>
+        <v>28.36</v>
       </c>
       <c r="C506">
-        <v>14.28</v>
+        <v>41.83</v>
       </c>
       <c r="D506">
-        <v>2307.89</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4">
-      <c r="A507" s="1">
-        <v>505</v>
-      </c>
-      <c r="B507">
-        <v>15.93</v>
-      </c>
-      <c r="C507">
-        <v>14.41</v>
-      </c>
-      <c r="D507">
-        <v>2315.93</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="1">
-        <v>506</v>
-      </c>
-      <c r="B508">
-        <v>16.18</v>
-      </c>
-      <c r="C508">
-        <v>14.63</v>
-      </c>
-      <c r="D508">
-        <v>2329.45</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4">
-      <c r="A509" s="1">
-        <v>507</v>
-      </c>
-      <c r="B509">
-        <v>15.79</v>
-      </c>
-      <c r="C509">
-        <v>15</v>
-      </c>
-      <c r="D509">
-        <v>2289.87</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="1">
-        <v>508</v>
-      </c>
-      <c r="B510">
-        <v>15.62</v>
-      </c>
-      <c r="C510">
-        <v>15.19</v>
-      </c>
-      <c r="D510">
-        <v>2309.72</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
-      <c r="A511" s="1">
-        <v>509</v>
-      </c>
-      <c r="B511">
-        <v>15.79</v>
-      </c>
-      <c r="C511">
-        <v>15.1</v>
-      </c>
-      <c r="D511">
-        <v>2343.57</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
-      <c r="A512" s="1">
-        <v>510</v>
-      </c>
-      <c r="B512">
-        <v>15.72</v>
-      </c>
-      <c r="C512">
-        <v>14.67</v>
-      </c>
-      <c r="D512">
-        <v>2345.1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
-      <c r="A513" s="1">
-        <v>511</v>
-      </c>
-      <c r="B513">
-        <v>16.27</v>
-      </c>
-      <c r="C513">
-        <v>14.84</v>
-      </c>
-      <c r="D513">
-        <v>2347.72</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
-      <c r="A514" s="1">
-        <v>512</v>
-      </c>
-      <c r="B514">
-        <v>16.48</v>
-      </c>
-      <c r="C514">
-        <v>14.82</v>
-      </c>
-      <c r="D514">
-        <v>2357.71</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
-      <c r="A515" s="1">
-        <v>513</v>
-      </c>
-      <c r="B515">
-        <v>16.26</v>
-      </c>
-      <c r="C515">
-        <v>14.98</v>
-      </c>
-      <c r="D515">
-        <v>2363.87</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
-      <c r="A516" s="1">
-        <v>514</v>
-      </c>
-      <c r="B516">
-        <v>17.05</v>
-      </c>
-      <c r="C516">
-        <v>15.14</v>
-      </c>
-      <c r="D516">
-        <v>2382.79</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
-      <c r="A517" s="1">
-        <v>515</v>
-      </c>
-      <c r="B517">
-        <v>17.18</v>
-      </c>
-      <c r="C517">
-        <v>15.16</v>
-      </c>
-      <c r="D517">
-        <v>2389.37</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
-      <c r="A518" s="1">
-        <v>516</v>
-      </c>
-      <c r="B518">
-        <v>17.69</v>
-      </c>
-      <c r="C518">
-        <v>14.81</v>
-      </c>
-      <c r="D518">
-        <v>2374.54</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
-      <c r="A519" s="1">
-        <v>517</v>
-      </c>
-      <c r="B519">
-        <v>17.62</v>
-      </c>
-      <c r="C519">
-        <v>14.74</v>
-      </c>
-      <c r="D519">
-        <v>2366.01</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
-      <c r="A520" s="1">
-        <v>518</v>
-      </c>
-      <c r="B520">
-        <v>17.45</v>
-      </c>
-      <c r="C520">
-        <v>14.89</v>
-      </c>
-      <c r="D520">
-        <v>2359.48</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="A521" s="1">
-        <v>519</v>
-      </c>
-      <c r="B521">
-        <v>17.98</v>
-      </c>
-      <c r="C521">
-        <v>15.14</v>
-      </c>
-      <c r="D521">
-        <v>2373.67</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="A522" s="1">
-        <v>520</v>
-      </c>
-      <c r="B522">
-        <v>17.45</v>
-      </c>
-      <c r="C522">
-        <v>15.22</v>
-      </c>
-      <c r="D522">
-        <v>2356.5</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
-      <c r="A523" s="1">
-        <v>521</v>
-      </c>
-      <c r="B523">
-        <v>17.59</v>
-      </c>
-      <c r="C523">
-        <v>14.74</v>
-      </c>
-      <c r="D523">
-        <v>2341.18</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="A524" s="1">
-        <v>522</v>
-      </c>
-      <c r="B524">
-        <v>17.36</v>
-      </c>
-      <c r="C524">
-        <v>14.86</v>
-      </c>
-      <c r="D524">
-        <v>2356.73</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
-      <c r="A525" s="1">
-        <v>523</v>
-      </c>
-      <c r="B525">
-        <v>17.14</v>
-      </c>
-      <c r="C525">
-        <v>15.65</v>
-      </c>
-      <c r="D525">
-        <v>2339.66</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
-      <c r="A526" s="1">
-        <v>524</v>
-      </c>
-      <c r="B526">
-        <v>16.95</v>
-      </c>
-      <c r="C526">
-        <v>15.24</v>
-      </c>
-      <c r="D526">
-        <v>2326.55</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
-      <c r="A527" s="1">
-        <v>525</v>
-      </c>
-      <c r="B527">
-        <v>17.48</v>
-      </c>
-      <c r="C527">
-        <v>14.6</v>
-      </c>
-      <c r="D527">
-        <v>2302.42</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
-      <c r="A528" s="1">
-        <v>526</v>
-      </c>
-      <c r="B528">
-        <v>16.48</v>
-      </c>
-      <c r="C528">
-        <v>14.65</v>
-      </c>
-      <c r="D528">
-        <v>2302.28</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
-      <c r="A529" s="1">
-        <v>527</v>
-      </c>
-      <c r="B529">
-        <v>16.28</v>
-      </c>
-      <c r="C529">
-        <v>13.8</v>
-      </c>
-      <c r="D529">
-        <v>2290.44</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
-      <c r="A530" s="1">
-        <v>528</v>
-      </c>
-      <c r="B530">
-        <v>16.64</v>
-      </c>
-      <c r="C530">
-        <v>14.64</v>
-      </c>
-      <c r="D530">
-        <v>2337.87</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
-      <c r="A531" s="1">
-        <v>529</v>
-      </c>
-      <c r="B531">
-        <v>17.01</v>
-      </c>
-      <c r="C531">
-        <v>14.94</v>
-      </c>
-      <c r="D531">
-        <v>2373.03</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
-      <c r="A532" s="1">
-        <v>530</v>
-      </c>
-      <c r="B532">
-        <v>16.41</v>
-      </c>
-      <c r="C532">
-        <v>14.75</v>
-      </c>
-      <c r="D532">
-        <v>2391.08</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
-      <c r="A533" s="1">
-        <v>531</v>
-      </c>
-      <c r="B533">
-        <v>16.63</v>
-      </c>
-      <c r="C533">
-        <v>14.34</v>
-      </c>
-      <c r="D533">
-        <v>2420.18</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="A534" s="1">
-        <v>532</v>
-      </c>
-      <c r="B534">
-        <v>16.55</v>
-      </c>
-      <c r="C534">
-        <v>14.68</v>
-      </c>
-      <c r="D534">
-        <v>2430.03</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="A535" s="1">
-        <v>533</v>
-      </c>
-      <c r="B535">
-        <v>16.96</v>
-      </c>
-      <c r="C535">
-        <v>14.7</v>
-      </c>
-      <c r="D535">
-        <v>2430.68</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
-      <c r="A536" s="1">
-        <v>534</v>
-      </c>
-      <c r="B536">
-        <v>16.86</v>
-      </c>
-      <c r="C536">
-        <v>14.49</v>
-      </c>
-      <c r="D536">
-        <v>2419.25</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="A537" s="1">
-        <v>535</v>
-      </c>
-      <c r="B537">
-        <v>16.84</v>
-      </c>
-      <c r="C537">
-        <v>14.69</v>
-      </c>
-      <c r="D537">
-        <v>2425.86</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="A538" s="1">
-        <v>536</v>
-      </c>
-      <c r="B538">
-        <v>16.53</v>
-      </c>
-      <c r="C538">
-        <v>14.13</v>
-      </c>
-      <c r="D538">
-        <v>2418.17</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="A539" s="1">
-        <v>537</v>
-      </c>
-      <c r="B539">
-        <v>16.2</v>
-      </c>
-      <c r="C539">
-        <v>14.41</v>
-      </c>
-      <c r="D539">
-        <v>2473.67</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
-      <c r="A540" s="1">
-        <v>538</v>
-      </c>
-      <c r="B540">
-        <v>15.4</v>
-      </c>
-      <c r="C540">
-        <v>14.74</v>
-      </c>
-      <c r="D540">
-        <v>2469.67</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
-      <c r="A541" s="1">
-        <v>539</v>
-      </c>
-      <c r="B541">
-        <v>15.54</v>
-      </c>
-      <c r="C541">
-        <v>15.28</v>
-      </c>
-      <c r="D541">
-        <v>2494.48</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
-      <c r="A542" s="1">
-        <v>540</v>
-      </c>
-      <c r="B542">
-        <v>14.78</v>
-      </c>
-      <c r="C542">
-        <v>14.87</v>
-      </c>
-      <c r="D542">
-        <v>2485.61</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
-      <c r="A543" s="1">
-        <v>541</v>
-      </c>
-      <c r="B543">
-        <v>14.81</v>
-      </c>
-      <c r="C543">
-        <v>14.27</v>
-      </c>
-      <c r="D543">
-        <v>2478.82</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
-      <c r="A544" s="1">
-        <v>542</v>
-      </c>
-      <c r="B544">
-        <v>15.02</v>
-      </c>
-      <c r="C544">
-        <v>14.68</v>
-      </c>
-      <c r="D544">
-        <v>2474.01</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
-      <c r="A545" s="1">
-        <v>543</v>
-      </c>
-      <c r="B545">
-        <v>15.05</v>
-      </c>
-      <c r="C545">
-        <v>14.8</v>
-      </c>
-      <c r="D545">
-        <v>2456.37</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
-      <c r="A546" s="1">
-        <v>544</v>
-      </c>
-      <c r="B546">
-        <v>15.01</v>
-      </c>
-      <c r="C546">
-        <v>15</v>
-      </c>
-      <c r="D546">
-        <v>2450.99</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
-      <c r="A547" s="1">
-        <v>545</v>
-      </c>
-      <c r="B547">
-        <v>14.97</v>
-      </c>
-      <c r="C547">
-        <v>15.21</v>
-      </c>
-      <c r="D547">
-        <v>2452.66</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
-      <c r="A548" s="1">
-        <v>546</v>
-      </c>
-      <c r="B548">
-        <v>15.19</v>
-      </c>
-      <c r="C548">
-        <v>15.23</v>
-      </c>
-      <c r="D548">
-        <v>2486.79</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
-      <c r="A549" s="1">
-        <v>547</v>
-      </c>
-      <c r="B549">
-        <v>15.29</v>
-      </c>
-      <c r="C549">
-        <v>15.39</v>
-      </c>
-      <c r="D549">
-        <v>2532.88</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
-      <c r="A550" s="1">
-        <v>548</v>
-      </c>
-      <c r="B550">
-        <v>15.38</v>
-      </c>
-      <c r="C550">
-        <v>15.52</v>
-      </c>
-      <c r="D550">
-        <v>2567.6</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" s="1">
-        <v>549</v>
-      </c>
-      <c r="B551">
-        <v>15.49</v>
-      </c>
-      <c r="C551">
-        <v>17.07</v>
-      </c>
-      <c r="D551">
-        <v>2604.34</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
-      <c r="A552" s="1">
-        <v>550</v>
-      </c>
-      <c r="B552">
-        <v>15.41</v>
-      </c>
-      <c r="C552">
-        <v>17.23</v>
-      </c>
-      <c r="D552">
-        <v>2630.49</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="1">
-        <v>551</v>
-      </c>
-      <c r="B553">
-        <v>14.24</v>
-      </c>
-      <c r="C553">
-        <v>16.89</v>
-      </c>
-      <c r="D553">
-        <v>2682.83</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="1">
-        <v>552</v>
-      </c>
-      <c r="B554">
-        <v>13.88</v>
-      </c>
-      <c r="C554">
-        <v>17.1</v>
-      </c>
-      <c r="D554">
-        <v>2680.16</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4">
-      <c r="A555" s="1">
-        <v>553</v>
-      </c>
-      <c r="B555">
-        <v>14.15</v>
-      </c>
-      <c r="C555">
-        <v>17.29</v>
-      </c>
-      <c r="D555">
-        <v>2763.54</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
-      <c r="A556" s="1">
-        <v>554</v>
-      </c>
-      <c r="B556">
-        <v>14.27</v>
-      </c>
-      <c r="C556">
-        <v>17.24</v>
-      </c>
-      <c r="D556">
-        <v>2779.52</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="1">
-        <v>555</v>
-      </c>
-      <c r="B557">
-        <v>14.65</v>
-      </c>
-      <c r="C557">
-        <v>17.96</v>
-      </c>
-      <c r="D557">
-        <v>2899.46</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="1">
-        <v>556</v>
-      </c>
-      <c r="B558">
-        <v>14.14</v>
-      </c>
-      <c r="C558">
-        <v>16.69</v>
-      </c>
-      <c r="D558">
-        <v>2937.65</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="1">
-        <v>557</v>
-      </c>
-      <c r="B559">
-        <v>14.17</v>
-      </c>
-      <c r="C559">
-        <v>16.94</v>
-      </c>
-      <c r="D559">
-        <v>3020.26</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="1">
-        <v>558</v>
-      </c>
-      <c r="B560">
-        <v>13.53</v>
-      </c>
-      <c r="C560">
-        <v>16.3</v>
-      </c>
-      <c r="D560">
-        <v>2856.27</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="1">
-        <v>559</v>
-      </c>
-      <c r="B561">
-        <v>13.92</v>
-      </c>
-      <c r="C561">
-        <v>16.8</v>
-      </c>
-      <c r="D561">
-        <v>2940.01</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="1">
-        <v>560</v>
-      </c>
-      <c r="B562">
-        <v>14.11</v>
-      </c>
-      <c r="C562">
-        <v>16.89</v>
-      </c>
-      <c r="D562">
-        <v>2925.74</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="1">
-        <v>561</v>
-      </c>
-      <c r="B563">
-        <v>14.2</v>
-      </c>
-      <c r="C563">
-        <v>17.01</v>
-      </c>
-      <c r="D563">
-        <v>2938.17</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
-      <c r="A564" s="1">
-        <v>562</v>
-      </c>
-      <c r="B564">
-        <v>14.38</v>
-      </c>
-      <c r="C564">
-        <v>17.79</v>
-      </c>
-      <c r="D564">
-        <v>2953.42</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
-      <c r="A565" s="1">
-        <v>563</v>
-      </c>
-      <c r="B565">
-        <v>14.23</v>
-      </c>
-      <c r="C565">
-        <v>18.97</v>
-      </c>
-      <c r="D565">
-        <v>3021.52</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
-      <c r="A566" s="1">
-        <v>564</v>
-      </c>
-      <c r="B566">
-        <v>14.01</v>
-      </c>
-      <c r="C566">
-        <v>20.81</v>
-      </c>
-      <c r="D566">
-        <v>3061.02</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
-      <c r="A567" s="1">
-        <v>565</v>
-      </c>
-      <c r="B567">
-        <v>14.07</v>
-      </c>
-      <c r="C567">
-        <v>21.76</v>
-      </c>
-      <c r="D567">
-        <v>3057.52</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
-      <c r="A568" s="1">
-        <v>566</v>
-      </c>
-      <c r="B568">
-        <v>18.17</v>
-      </c>
-      <c r="C568">
-        <v>23.94</v>
-      </c>
-      <c r="D568">
-        <v>4287.3</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
-      <c r="A569" s="1">
-        <v>567</v>
-      </c>
-      <c r="B569">
-        <v>18.58</v>
-      </c>
-      <c r="C569">
-        <v>26.33</v>
-      </c>
-      <c r="D569">
-        <v>4217.08</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
-      <c r="A570" s="1">
-        <v>568</v>
-      </c>
-      <c r="B570">
-        <v>19.42</v>
-      </c>
-      <c r="C570">
-        <v>28.96</v>
-      </c>
-      <c r="D570">
-        <v>4293.62</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
-      <c r="A571" s="1">
-        <v>569</v>
-      </c>
-      <c r="B571">
-        <v>19.36</v>
-      </c>
-      <c r="C571">
-        <v>31.86</v>
-      </c>
-      <c r="D571">
-        <v>4398.49</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
-      <c r="A572" s="1">
-        <v>570</v>
-      </c>
-      <c r="B572">
-        <v>19.79</v>
-      </c>
-      <c r="C572">
-        <v>35.05</v>
-      </c>
-      <c r="D572">
-        <v>4414.51</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
-      <c r="A573" s="1">
-        <v>571</v>
-      </c>
-      <c r="B573">
-        <v>21.19</v>
-      </c>
-      <c r="C573">
-        <v>38.56</v>
-      </c>
-      <c r="D573">
-        <v>4393.69</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
-      <c r="A574" s="1">
-        <v>572</v>
-      </c>
-      <c r="B574">
-        <v>22.87</v>
-      </c>
-      <c r="C574">
-        <v>38.07</v>
-      </c>
-      <c r="D574">
-        <v>4527.4</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
-      <c r="A575" s="1">
-        <v>573</v>
-      </c>
-      <c r="B575">
-        <v>23.21</v>
-      </c>
-      <c r="C575">
-        <v>34.52</v>
-      </c>
-      <c r="D575">
-        <v>4476.21</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="1">
-        <v>574</v>
-      </c>
-      <c r="B576">
-        <v>22.72</v>
-      </c>
-      <c r="C576">
-        <v>36.07</v>
-      </c>
-      <c r="D576">
-        <v>4476.62</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="1">
-        <v>575</v>
-      </c>
-      <c r="B577">
-        <v>21.74</v>
-      </c>
-      <c r="C577">
-        <v>34.25</v>
-      </c>
-      <c r="D577">
-        <v>4441.65</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="1">
-        <v>576</v>
-      </c>
-      <c r="B578">
-        <v>22.08</v>
-      </c>
-      <c r="C578">
-        <v>34.29</v>
-      </c>
-      <c r="D578">
-        <v>4480.46</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="1">
-        <v>577</v>
-      </c>
-      <c r="B579">
-        <v>21.6</v>
-      </c>
-      <c r="C579">
-        <v>31.71</v>
-      </c>
-      <c r="D579">
-        <v>4298.71</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
-      <c r="A580" s="1">
-        <v>578</v>
-      </c>
-      <c r="B580">
-        <v>20.61</v>
-      </c>
-      <c r="C580">
-        <v>31.91</v>
-      </c>
-      <c r="D580">
-        <v>4229.27</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" s="1">
-        <v>579</v>
-      </c>
-      <c r="B581">
-        <v>20.81</v>
-      </c>
-      <c r="C581">
-        <v>32.58</v>
-      </c>
-      <c r="D581">
-        <v>4112.21</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
-      <c r="A582" s="1">
-        <v>580</v>
-      </c>
-      <c r="B582">
-        <v>21.27</v>
-      </c>
-      <c r="C582">
-        <v>33.68</v>
-      </c>
-      <c r="D582">
-        <v>4205.92</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
-      <c r="A583" s="1">
-        <v>581</v>
-      </c>
-      <c r="B583">
-        <v>21.72</v>
-      </c>
-      <c r="C583">
-        <v>35.88</v>
-      </c>
-      <c r="D583">
-        <v>4333.58</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
-      <c r="A584" s="1">
-        <v>582</v>
-      </c>
-      <c r="B584">
-        <v>21.92</v>
-      </c>
-      <c r="C584">
-        <v>39.47</v>
-      </c>
-      <c r="D584">
-        <v>4401.22</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
-      <c r="A585" s="1">
-        <v>583</v>
-      </c>
-      <c r="B585">
-        <v>22.9</v>
-      </c>
-      <c r="C585">
-        <v>42.06</v>
-      </c>
-      <c r="D585">
-        <v>4375.76</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
-      <c r="A586" s="1">
-        <v>584</v>
-      </c>
-      <c r="B586">
-        <v>22.36</v>
-      </c>
-      <c r="C586">
-        <v>40.37</v>
-      </c>
-      <c r="D586">
-        <v>4378.31</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
-      <c r="A587" s="1">
-        <v>585</v>
-      </c>
-      <c r="B587">
-        <v>21.42</v>
-      </c>
-      <c r="C587">
-        <v>38.74</v>
-      </c>
-      <c r="D587">
-        <v>4308.69</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="1">
-        <v>586</v>
-      </c>
-      <c r="B588">
-        <v>21.53</v>
-      </c>
-      <c r="C588">
-        <v>38.83</v>
-      </c>
-      <c r="D588">
-        <v>4283.49</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
-      <c r="A589" s="1">
-        <v>587</v>
-      </c>
-      <c r="B589">
-        <v>22.49</v>
-      </c>
-      <c r="C589">
-        <v>41.26</v>
-      </c>
-      <c r="D589">
-        <v>4417.55</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
-      <c r="A590" s="1">
-        <v>588</v>
-      </c>
-      <c r="B590">
-        <v>22.39</v>
-      </c>
-      <c r="C590">
-        <v>42.53</v>
-      </c>
-      <c r="D590">
-        <v>4446.29</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
-      <c r="A591" s="1">
-        <v>589</v>
-      </c>
-      <c r="B591">
-        <v>24.56</v>
-      </c>
-      <c r="C591">
-        <v>45.62</v>
-      </c>
-      <c r="D591">
-        <v>4529.42</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
-      <c r="A592" s="1">
-        <v>590</v>
-      </c>
-      <c r="B592">
-        <v>24.18</v>
-      </c>
-      <c r="C592">
-        <v>44.33</v>
-      </c>
-      <c r="D592">
-        <v>4657.6</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
-      <c r="A593" s="1">
-        <v>591</v>
-      </c>
-      <c r="B593">
-        <v>26.15</v>
-      </c>
-      <c r="C593">
-        <v>42.3</v>
-      </c>
-      <c r="D593">
-        <v>4813.8</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
-      <c r="A594" s="1">
-        <v>592</v>
-      </c>
-      <c r="B594">
-        <v>26.46</v>
-      </c>
-      <c r="C594">
-        <v>43.43</v>
-      </c>
-      <c r="D594">
-        <v>4910.9</v>
-      </c>
-    </row>
-    <row r="595" spans="1:4">
-      <c r="A595" s="1">
-        <v>593</v>
-      </c>
-      <c r="B595">
-        <v>26.69</v>
-      </c>
-      <c r="C595">
-        <v>42.61</v>
-      </c>
-      <c r="D595">
-        <v>4941.71</v>
-      </c>
-    </row>
-    <row r="596" spans="1:4">
-      <c r="A596" s="1">
-        <v>594</v>
-      </c>
-      <c r="B596">
-        <v>24.07</v>
-      </c>
-      <c r="C596">
-        <v>40.09</v>
-      </c>
-      <c r="D596">
-        <v>4620.27</v>
-      </c>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="1">
-        <v>595</v>
-      </c>
-      <c r="B597">
-        <v>25.78</v>
-      </c>
-      <c r="C597">
-        <v>39.45</v>
-      </c>
-      <c r="D597">
-        <v>4611.74</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4">
-      <c r="A598" s="1">
-        <v>596</v>
-      </c>
-      <c r="B598">
-        <v>28.36</v>
-      </c>
-      <c r="C598">
-        <v>41.83</v>
-      </c>
-      <c r="D598">
         <v>4828.74</v>
       </c>
     </row>
